--- a/data/performance_sheets_option3/window1/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window1/BA47 Overall Model Peformance Results.xlsx
@@ -1673,25 +1673,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.04828351363539696</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1658719480037689</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3672722578048706</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2197350987789546</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>25.68444311618805</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.04412620142102242</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1678160429000854</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3464694321155548</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2100623750723161</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>26.15602016448975</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2772,25 +2808,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.8215910196304321</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.6859334111213684</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.44170081615448</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.9064165817274263</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>26.02508664131165</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>2.136823654174805</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>1.310218453407288</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.7172392010688782</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.461787828029364</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>42.30699837207794</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3868,25 +3940,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.701950550079346</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.568676948547363</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.7303400635719299</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.643761098845981</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>47.32924401760101</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.357495307922363</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>1.056250333786011</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.5321868062019348</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.165116006208121</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>35.13551652431488</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4964,25 +5072,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.4033529758453369</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4860800802707672</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2254060208797455</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.6351007603879379</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>17.57916212081909</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.6630240678787231</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.7169687151908875</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3112651705741882</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.8142628985031328</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>24.4290828704834</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6058,25 +6202,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2598808109760284</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4395176768302917</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.085283517837524</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.5097850635081695</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>113.9092445373535</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.2591495215892792</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4332848787307739</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.260144710540771</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.5090673055591757</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>107.5007796287537</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7152,25 +7332,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5163.9365234375</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>62.43392181396484</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>317.8827514648438</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>71.8605352292724</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>199.502968788147</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.3563019037246704</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4228445887565613</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>2.059015035629272</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.5969102978879409</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>83.67544412612915</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8246,25 +8462,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.4291451871395111</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4946083724498749</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>3.089239358901978</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.6550917394834949</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>71.70053124427795</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1286520063877106</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2911022007465363</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>2.190062046051025</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.3586809255978223</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>60.08318662643433</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9340,25 +9592,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.043223023414612</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.6838412284851074</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.7856357097625732</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.021382897553416</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>30.88420033454895</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.18947958946228</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.6641600728034973</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.8352013230323792</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.090632655600537</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>28.22952568531036</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10434,25 +10722,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.449377059936523</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.569016098976135</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.440463781356812</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>2.109354654849801</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>49.20743107795715</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.001257419586182</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.522476851940155</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.7671225070953369</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.000628512279248</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>24.23553466796875</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11528,25 +11852,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.8193542957305908</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.470768928527832</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.4088647961616516</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.9051819130597953</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>22.46654778718948</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.161606431007385</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.6340157985687256</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.5081925988197327</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.077778470283845</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>27.34422087669373</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12442,13 +12802,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.04184156283736229</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1683047264814377</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3361413478851318</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2045521029893418</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>26.89014971256256</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -13536,25 +13914,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.0674792155623436</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2104236930608749</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.6078858375549316</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2597676183867874</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>36.43105328083038</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.05991746112704277</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1904953569173813</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.6962230801582336</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2447804345266238</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>32.50159919261932</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14450,13 +14864,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1952819973230362</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3413596749305725</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.105191946029663</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.4419072270545439</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>43.22284758090973</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -15364,13 +15796,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.06672421842813492</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2000794112682343</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.7251440286636353</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2583103142116763</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>33.97980034351349</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -16278,13 +16728,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.5393130779266357</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.5834254622459412</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2639360427856445</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.7343793828305882</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>20.46891152858734</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -17192,13 +17660,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3604893684387207</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.355632871389389</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.23415307700634</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.6004076685375701</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>14.78036493062973</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -18106,13 +18592,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.6559852361679077</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.5580286979675293</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3837442994117737</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.8099291550301839</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>22.21953421831131</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -19200,25 +19704,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.06609226763248444</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2002065628767014</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5275158882141113</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.257084164491873</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>33.30971300601959</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.06074528396129608</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2080773115158081</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.4694399535655975</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2464655837257934</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>36.1310213804245</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20294,25 +20834,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.328744649887085</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.5096894502639771</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2002400904893875</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.5733625815198311</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>20.49869000911713</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1809358596801758</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.3290906548500061</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1431283503770828</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.4253655600541442</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>13.04146349430084</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -21389,25 +21965,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3402909934520721</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3270184397697449</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2606619000434875</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.583344660944173</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>14.90759551525116</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.4778831601142883</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4323435723781586</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3219235837459564</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.6912909373876446</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>18.34450215101242</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -22484,25 +23096,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2822715044021606</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3750596344470978</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2166143655776978</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.531292296577092</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>15.95712006092072</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.2963336110115051</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.3288842141628265</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2179800570011139</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.544365328627297</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>13.98853957653046</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -23581,25 +24229,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.04885196313261986</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.172400489449501</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.347673624753952</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2210248020757396</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>26.79560482501984</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.04421151056885719</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1764901429414749</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3526983559131622</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2102653337306395</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>27.55297124385834</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24679,25 +25363,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.06475028395652771</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1906571686267853</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.7375611662864685</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2544607709579764</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>32.21515119075775</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.07457048445940018</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2045505493879318</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.8309363722801208</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2730759682934406</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>33.65775048732758</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25775,25 +26495,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.08061899989843369</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1983529776334763</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.7430695295333862</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2839348515037097</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>30.75843453407288</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.04656050726771355</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1739448755979538</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.537301242351532</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2157788387857195</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>29.10900115966797</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/performance_sheets_option3/window1/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window1/BA47 Overall Model Peformance Results.xlsx
@@ -782,7 +782,7 @@
         <v>0.2389789706643304</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.63180982499701</v>
+        <v>30.63180982499702</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.07488735738914719</v>
+        <v>0.07488735738914702</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2317225895985429</v>
+        <v>0.2317225895985426</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3936214306333727</v>
+        <v>0.3936214306333721</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2736555451459867</v>
+        <v>0.2736555451459864</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>36.24971185206885</v>
+        <v>36.2497118520688</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -1338,19 +1338,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04549214051018674</v>
+        <v>0.04531019929734594</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.169141935932635</v>
+        <v>0.1686610990257584</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3464637599751296</v>
+        <v>0.3478453189531952</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2132888663530911</v>
+        <v>0.2128619254290113</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>26.34353853768479</v>
+        <v>26.25930887172677</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -1621,25 +1621,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04414515569806099</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1631710678339005</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3691602647304535</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2101074860590669</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>25.26687681674957</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.04455126821994781</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1658853143453598</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3721440434455872</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2110717134529111</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>25.68825483322144</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -1647,25 +1683,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03657985478639603</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1667054891586304</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2399125993251801</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.191258607091017</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>22.14322090148926</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.02955889329314232</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1500756442546844</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2071069926023483</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1719269998957183</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>20.06841003894806</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -1905,19 +1977,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>7.435094468256472e-07</v>
+        <v>7.435094468241293e-07</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0006960363455479977</v>
+        <v>0.0006960363455479542</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0003069671655411418</v>
+        <v>0.0003069671655411426</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0008622699384912171</v>
+        <v>0.0008622699384903368</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.03069275055390751</v>
+        <v>0.0306927505539076</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -1935,19 +2007,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>6.220468290599413e-07</v>
+        <v>6.220468290524006e-07</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0006249774222129742</v>
+        <v>0.0006249774222094736</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0002723041086451676</v>
+        <v>0.0002723041086438248</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.000788699454202893</v>
+        <v>0.0007886994541981125</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.027227781850831</v>
+        <v>0.02722778185069674</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2535,19 +2607,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9470886297512139</v>
+        <v>0.9496850711721532</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.901693225006014</v>
+        <v>0.9026773272242652</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4044429663972906</v>
+        <v>0.4047388307067367</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.973184787052908</v>
+        <v>0.9745178660097275</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>41.71184478595384</v>
+        <v>41.75860842954432</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -2565,19 +2637,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>2.350191746107623</v>
+        <v>2.321101105998094</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>1.319942944559206</v>
+        <v>1.317416280392411</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.5190182032457354</v>
+        <v>0.5187599853499981</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.533033511084354</v>
+        <v>1.523516034046932</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>69.8282977449451</v>
+        <v>69.4290518708183</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1">
@@ -2756,25 +2828,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.3504697382450104</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3543234169483185</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2684845626354218</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5920048464708801</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>15.92961698770523</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.3674552440643311</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3952349424362183</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2809343636035919</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.6061808674515644</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>17.4425795674324</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -2782,25 +2890,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1370533555746078</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.268069714307785</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1181556805968285</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3702071792585982</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>10.40328368544579</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.1545468717813492</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2769894301891327</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1221452578902245</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.3931244990856576</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>10.71680560708046</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -3037,19 +3181,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.168070912958505e-06</v>
+        <v>1.168070912952423e-06</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0008624718759542381</v>
+        <v>0.0008624718759514159</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0003523000829712956</v>
+        <v>0.0003523000829698699</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.00108077329396988</v>
+        <v>0.001080773293967066</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.03522929261147719</v>
+        <v>0.03522929261133467</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -3067,19 +3211,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>6.915533407031821e-07</v>
+        <v>6.915533407040345e-07</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0006299525425004899</v>
+        <v>0.0006299525425030434</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0002797815396291918</v>
+        <v>0.0002797815396302997</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0008315968618887292</v>
+        <v>0.0008315968618892417</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.02797181496692181</v>
+        <v>0.02797181496703261</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -3605,19 +3749,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.345317718971704</v>
+        <v>2.317252106663424</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.339294854826451</v>
+        <v>1.328632722330617</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5141482209796507</v>
+        <v>0.5159344525774833</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.531443018519365</v>
+        <v>1.522252313732327</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>70.10392842958551</v>
+        <v>69.37616772685764</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -3667,19 +3811,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.228186967211647</v>
+        <v>2.2349971856707</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.357704296491328</v>
+        <v>1.358511103952247</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5147858607890397</v>
+        <v>0.5146696997990798</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.492711280593688</v>
+        <v>1.494990697519787</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>69.90662816537795</v>
+        <v>69.89297076417665</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -3697,19 +3841,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.7602803360437822</v>
+        <v>0.7590606995903162</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.7913961824307389</v>
+        <v>0.7906018498428817</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.2973111395719621</v>
+        <v>0.2969802723572998</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.8719405576321027</v>
+        <v>0.8712408964174697</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>34.79738816555075</v>
+        <v>34.75098942419498</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -3888,25 +4032,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2637575268745422</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3148931562900543</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.205607995390892</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.51357329260247</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>13.56436759233475</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.2549425959587097</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.315311461687088</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2027991712093353</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.5049184052485211</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>13.67359459400177</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -3914,25 +4094,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06982041150331497</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2030506879091263</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07558270543813705</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2642355227885058</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.395843416452408</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.07186783105134964</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2385329604148865</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.08851361274719238</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2680817618775094</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>8.624438941478729</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -4169,19 +4385,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.552768881450819e-07</v>
+        <v>4.552768881428547e-07</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0006067454222749014</v>
+        <v>0.0006067454222735208</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0002191579006436285</v>
+        <v>0.000219157900642905</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0006747420900944908</v>
+        <v>0.0006747420900928403</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.02191852496639972</v>
+        <v>0.02191852496632735</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -4199,19 +4415,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>4.113921977319113e-07</v>
+        <v>4.113921977312938e-07</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0005664393428512385</v>
+        <v>0.0005664393428511709</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0002007316300562941</v>
+        <v>0.0002007316300561637</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0006413986262316995</v>
+        <v>0.0006413986262312181</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.02007558202041041</v>
+        <v>0.02007558202039734</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -4319,7 +4535,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2384815695243904</v>
+        <v>0.2384815695243903</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.3858065363173057</v>
@@ -4328,7 +4544,7 @@
         <v>0.1667421232527422</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.4883457479331528</v>
+        <v>0.4883457479331527</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>15.32119839581189</v>
@@ -4799,19 +5015,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.645235170208474</v>
+        <v>1.657114457674236</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.219886611531355</v>
+        <v>1.225314593458879</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4381647878656347</v>
+        <v>0.4403817068018135</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.282667209453985</v>
+        <v>1.287289578018185</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>57.79802215024138</v>
+        <v>58.11507285570846</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -4829,19 +5045,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.917744309951273</v>
+        <v>1.87951936308526</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>1.317757890128131</v>
+        <v>1.306105921629411</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.4794729816910372</v>
+        <v>0.4747490928526754</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.384826454813481</v>
+        <v>1.370955638627764</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>65.29933797336159</v>
+        <v>64.35813795558043</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -5020,25 +5236,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.166829377412796</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2776032090187073</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1296393424272537</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.408447521002143</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>11.03972122073174</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1660021990537643</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.289495587348938</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1356820613145828</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.4074336744229229</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>11.46239787340164</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -5046,25 +5298,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06096230819821358</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1901145279407501</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.06601853668689728</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2469054640914485</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.738068163394928</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05997302010655403</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2052767723798752</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.07219649851322174</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2448938956090046</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>7.258065789937973</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -5299,7 +5587,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.07767411742951695</v>
+        <v>0.07767411742951694</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2153836986181518</v>
@@ -5311,7 +5599,7 @@
         <v>0.278700766826209</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>40.43774234951585</v>
+        <v>40.43774234951586</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -5482,7 +5770,7 @@
         <v>0.0763268516473237</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.2112198168370899</v>
+        <v>0.21121981683709</v>
       </c>
       <c r="N10" s="8" t="n">
         <v>2.000007862689052</v>
@@ -6150,25 +6438,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1107297241687775</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2758516669273376</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.531638860702515</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3327607611614949</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>61.63686513900757</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1065908372402191</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2494211494922638</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>2.140899658203125</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.3264825221052715</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>44.66921091079712</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -6176,25 +6500,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.07966317981481552</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2201491296291351</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1.022618770599365</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2822466648426789</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>38.38190138339996</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.09698393940925598</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2292496114969254</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>1.255409240722656</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.3114224452560476</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>37.89961636066437</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -6429,7 +6789,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06283732449638975</v>
+        <v>0.06283732449638973</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1662601788373904</v>
@@ -6465,13 +6825,13 @@
         <v>0.1705104905905322</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>2.167876522684111</v>
+        <v>2.167876522684112</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.2606885438162894</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>33.41758720332431</v>
+        <v>33.4175872033243</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -6591,7 +6951,7 @@
         <v>0.2720060356474612</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>34.28042691244023</v>
+        <v>34.28042691244022</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -7059,19 +7419,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08263503418686366</v>
+        <v>0.08244918983185202</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1872106408201084</v>
+        <v>0.1869087641768678</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.350092353939324</v>
+        <v>2.349067460432999</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2874631005657312</v>
+        <v>0.2871396695544731</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>35.10404464028358</v>
+        <v>35.06761692280677</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -7089,19 +7449,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.09286216851671844</v>
+        <v>0.09243104007664221</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1982314807932993</v>
+        <v>0.1978012307828905</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>2.459337092881536</v>
+        <v>2.45632894693148</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.3047329462278709</v>
+        <v>0.3040247359618</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>36.10635564053224</v>
+        <v>36.06420164207208</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -7280,25 +7640,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06764845550060272</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.178208976984024</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2.116015434265137</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2600931669625381</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>34.73731577396393</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.07912327349185944</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2150844782590866</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>1.894244909286499</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2812885946707748</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>53.75792980194092</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -7306,25 +7702,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1114925742149353</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2526280879974365</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1.217472910881042</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3339050377202107</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>45.27716934680939</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.07268031686544418</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1843918710947037</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>1.015890598297119</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2695928724307158</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>34.90726053714752</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -7589,7 +8021,7 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05885962981028958</v>
+        <v>0.0588596298102896</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.1627785331762579</v>
@@ -7709,10 +8141,10 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.06481769611695723</v>
+        <v>0.06481769611695724</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1457488800057095</v>
+        <v>0.1457488800057096</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.001262381791752</v>
@@ -8127,19 +8559,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0802550388187093</v>
+        <v>0.08169676132018346</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.175864419653792</v>
+        <v>0.1799493600381051</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.456072176416893</v>
+        <v>2.462024206161168</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2832932029165354</v>
+        <v>0.2858264531497801</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>32.55793268373169</v>
+        <v>33.11688754694541</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -8189,19 +8621,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06266433117668684</v>
+        <v>0.06266299050495149</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1583966382465906</v>
+        <v>0.1584041820257993</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.231565245172498</v>
+        <v>2.231573011218731</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2503284465990369</v>
+        <v>0.2503257687593339</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>31.46687870628724</v>
+        <v>31.46794866695923</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -8219,19 +8651,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.06814606086765754</v>
+        <v>0.06823567692323299</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1713692605479825</v>
+        <v>0.1716004726117664</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>2.303703917976724</v>
+        <v>2.304478113980618</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2610480049103183</v>
+        <v>0.2612195952129797</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>32.64533688624754</v>
+        <v>32.68824576277496</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -8410,25 +8842,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.08259277045726776</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1861510276794434</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2.492374897003174</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2873895795906103</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>34.68982875347137</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.0869663879275322</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1973717212677002</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>2.408813953399658</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2949006407716541</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>36.45749390125275</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -8436,25 +8904,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.07559783011674881</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.176787331700325</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1.031287789344788</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2749505957744933</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>29.98124361038208</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05432306602597237</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1443810611963272</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.9345408082008362</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2330730915956888</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>26.34867429733276</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -8689,16 +9193,16 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6819111179205245</v>
+        <v>0.6819111179205247</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.3907090074998665</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6102042502153686</v>
+        <v>0.6102042502153687</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8257790975318547</v>
+        <v>0.8257790975318549</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>19.80595941095279</v>
@@ -8725,13 +9229,13 @@
         <v>0.3782463967698612</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.6251632461679437</v>
+        <v>0.6251632461679436</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.8403931164847522</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>19.28935790275791</v>
+        <v>19.2893579027579</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -8872,7 +9376,7 @@
         <v>0.7214313595070738</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.4319331797774217</v>
+        <v>0.4319331797774218</v>
       </c>
       <c r="N10" s="8" t="n">
         <v>0.6371793763732655</v>
@@ -9287,19 +9791,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.8485607767718417</v>
+        <v>0.8481779965267419</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.454780484517496</v>
+        <v>0.4551021463964636</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.6677654486105891</v>
+        <v>0.6674147637459017</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.9211735866664011</v>
+        <v>0.920965795524862</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>21.74753687769441</v>
+        <v>21.76120336262088</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -9540,25 +10044,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.8460355997085571</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4952580630779266</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.7129344344139099</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.9198019350428424</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>23.4581395983696</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.8418979048728943</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.6130147576332092</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.6125215888023376</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.9175499468001153</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>28.88528406620026</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -9566,25 +10106,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.4948674142360687</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.4570170044898987</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.542635977268219</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.7034681330636582</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>20.62919735908508</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.5792626142501831</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.43169304728508</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.6125836372375488</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.7610930391549926</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>19.3016305565834</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -9819,19 +10395,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6986517423039731</v>
+        <v>0.698651742303974</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3818192097072408</v>
+        <v>0.381819209707241</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6493021168711312</v>
+        <v>0.6493021168711317</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8358539000949706</v>
+        <v>0.8358539000949712</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>19.70142286297623</v>
+        <v>19.70142286297624</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -9849,7 +10425,7 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.7528317321907794</v>
+        <v>0.7528317321907791</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.3873358990026414</v>
@@ -9858,7 +10434,7 @@
         <v>0.6714149430986102</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.8676587648325691</v>
+        <v>0.8676587648325689</v>
       </c>
       <c r="P7" s="8" t="n">
         <v>19.71944862794596</v>
@@ -10002,7 +10578,7 @@
         <v>0.8311857727983919</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.4167664768977446</v>
+        <v>0.4167664768977445</v>
       </c>
       <c r="N10" s="8" t="n">
         <v>0.697116337174836</v>
@@ -10383,23 +10959,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 250, 'loss': 'linear', 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 250, 'loss': 'linear', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7772691973060317</v>
+        <v>0.7808056661479058</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.417846292715202</v>
+        <v>0.4216417146457531</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6211702089871962</v>
+        <v>0.6221459349256467</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.881628718512522</v>
+        <v>0.8836320875499631</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>21.05093874536856</v>
+        <v>21.18868748532075</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -10670,25 +11246,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.852436363697052</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4350370764732361</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.7222311496734619</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.9232748039977329</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>21.17941975593567</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>1.118493795394897</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.6876948475837708</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.8155871033668518</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>1.057588670228127</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>31.71430826187134</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -10696,25 +11308,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.730010449886322</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.5847569704055786</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.6210770010948181</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.8544064898432842</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>24.70738887786865</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.4268105626106262</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.3441225588321686</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.572697639465332</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.653307402843888</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>16.16872102022171</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -10949,19 +11597,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7475318987411077</v>
+        <v>0.7475318987411079</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4106457099233882</v>
+        <v>0.4106457099233881</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.3778720605396499</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8645992706110199</v>
+        <v>0.86459927061102</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>20.43743879115865</v>
+        <v>20.43743879115864</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -10979,16 +11627,16 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.6418505664657997</v>
+        <v>0.6418505664658002</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.355898883420217</v>
+        <v>0.3558988834202167</v>
       </c>
       <c r="N7" s="8" t="n">
         <v>0.3426173384464392</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.8011557691646486</v>
+        <v>0.8011557691646489</v>
       </c>
       <c r="P7" s="8" t="n">
         <v>18.58565475141003</v>
@@ -11800,25 +12448,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.9535235166549683</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4676761329174042</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.4342323243618011</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.9764852874749155</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>21.70094549655914</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.8547215461730957</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.4985307455062866</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.4254388511180878</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.9245115175989403</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>23.48269522190094</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -11826,25 +12510,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.4120193719863892</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2987290322780609</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2502773404121399</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.6418873514771802</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>13.7819305062294</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.3841318786144257</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.3584886491298676</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2610527276992798</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.6197837353580889</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>15.99648147821426</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -12079,19 +12799,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06791622915684113</v>
+        <v>0.06791622915684097</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1968269892673764</v>
+        <v>0.1968269892673761</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.404441035278427</v>
+        <v>0.4044410352784266</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2606074234492201</v>
+        <v>0.2606074234492198</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.70932223405148</v>
+        <v>30.70932223405143</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -12561,23 +13281,23 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 30, 'max_samples': 0.9, 'max_features': 0.7000000000000001}</t>
+          <t>{'n_estimators': 50, 'max_samples': 0.7000000000000001, 'max_features': 0.9}</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06325778218019421</v>
+        <v>0.05419806704229731</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1948619433129915</v>
+        <v>0.1844369952685431</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4013153038050093</v>
+        <v>0.3607966655118293</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2515109981296925</v>
+        <v>0.2328047831173091</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>30.18999434941061</v>
+        <v>28.95058872132845</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -12750,13 +13470,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04246235266327858</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1611935347318649</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3640405535697937</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2060639528478443</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>24.95085448026657</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -12776,13 +13514,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04475110024213791</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.177102118730545</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2332970201969147</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2115445585264199</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>23.80003929138184</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -13011,19 +13767,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04786058754560969</v>
+        <v>0.04786058754560972</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1690965976565371</v>
+        <v>0.1690965976565373</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3795205863970074</v>
+        <v>0.3795205863970075</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.218770627703103</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.83910213755402</v>
+        <v>30.83910213755403</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -13041,19 +13797,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.06103007739655134</v>
+        <v>0.06103007739655138</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1885813591937952</v>
+        <v>0.1885813591937953</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3835495536664317</v>
+        <v>0.3835495536664312</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2470426631101424</v>
+        <v>0.2470426631101426</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>34.98046102485667</v>
+        <v>34.98046102485668</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -13641,19 +14397,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03592049767490125</v>
+        <v>0.0361760624776473</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1452247969601291</v>
+        <v>0.1459496899998831</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3861298530235558</v>
+        <v>0.3875275005196542</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1895270367913276</v>
+        <v>0.1902000590894947</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>26.78676185543984</v>
+        <v>26.91841716028027</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -13671,19 +14427,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.04022035366137923</v>
+        <v>0.04016163576086668</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1504729134049997</v>
+        <v>0.1500973095131169</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.471999864613799</v>
+        <v>0.4713470371640856</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2005501275526377</v>
+        <v>0.2004036820042653</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>27.40913611348264</v>
+        <v>27.34663589825283</v>
       </c>
     </row>
     <row r="19" ht="121.5" customHeight="1">
@@ -13862,25 +14618,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06086941435933113</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1915386170148849</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.7052127718925476</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2467172761671366</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>32.5896292924881</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.06067952886223793</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1926990896463394</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.6974473595619202</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2463321514992266</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>32.82774984836578</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -13888,25 +14680,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04094663262367249</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1676770895719528</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3521963357925415</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2023527430594221</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>25.43540894985199</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.04138472303748131</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1684854775667191</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.3487283885478973</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2034323549425738</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>25.5628377199173</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -14141,19 +14969,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3075367479482485</v>
+        <v>0.3075367479482504</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4426213128424388</v>
+        <v>0.4426213128424408</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7939512377918001</v>
+        <v>0.7939512377918043</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5545599588396628</v>
+        <v>0.5545599588396645</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>75.38896104307477</v>
+        <v>75.38896104307497</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14579,23 +15407,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 250, 'loss': 'exponential', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03856491368948506</v>
+        <v>0.03511543336788108</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1486735760283463</v>
+        <v>0.1403504874588276</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4326032859962805</v>
+        <v>0.4534419129142318</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1963795144343856</v>
+        <v>0.1873911240370821</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>25.72206169141527</v>
+        <v>24.28834871689464</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -14627,19 +15455,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04366277399588528</v>
+        <v>0.04415785767172665</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1585998034019336</v>
+        <v>0.1589878301474109</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4454572442490449</v>
+        <v>0.446802346945597</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2089563925700414</v>
+        <v>0.2101377112079758</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>26.90191499054218</v>
+        <v>26.94565207809304</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -14812,13 +15640,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.03126886114478111</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1480055004358292</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3782608509063721</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1768300346230275</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>27.1967887878418</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -14838,13 +15684,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05859626457095146</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2078330516815186</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3196118772029877</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2420666531576612</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>29.83849942684174</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -15073,19 +15937,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7915478268442634</v>
+        <v>0.7915478268442667</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6976016409807188</v>
+        <v>0.6976016409807206</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.516714034357395</v>
+        <v>1.516714034357398</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8896897362812856</v>
+        <v>0.8896897362812874</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>105.1813714152736</v>
+        <v>105.1813714152738</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -15559,19 +16423,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05220084520839031</v>
+        <v>0.05267166232426831</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1648028817593556</v>
+        <v>0.1649833755315834</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5504182948474965</v>
+        <v>0.551785332095504</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2284750428567425</v>
+        <v>0.2295030769385637</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>28.70743987435374</v>
+        <v>28.71315471038388</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -15744,13 +16608,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06003422662615776</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1839984655380249</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.701518714427948</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2450188291257587</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>31.37328922748566</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -15770,13 +16652,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0434848852455616</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1679039150476456</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3601852357387543</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2085302981476831</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>25.39176642894745</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -16005,19 +16905,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.353875107700638</v>
+        <v>2.353875107700639</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.260837464818921</v>
+        <v>1.26083746481892</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.483710716247809</v>
+        <v>0.4837107162478086</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.53423437182871</v>
+        <v>1.534234371828711</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>63.39521967305715</v>
+        <v>63.3952196730571</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -16447,19 +17347,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.22855182270636</v>
+        <v>1.247526105253456</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6164421574536586</v>
+        <v>0.6119785268057095</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2474538181072599</v>
+        <v>0.2374939628612918</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.108400569607559</v>
+        <v>1.116927081439722</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>32.8188880442875</v>
+        <v>33.46373791609085</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -16676,13 +17576,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1628989577293396</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2615591883659363</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1266041845083237</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4036074302206782</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.43390482664108</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -16702,13 +17620,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05549871921539307</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2059718370437622</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07312246412038803</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2355816614581726</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.304578274488449</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -16940,16 +17876,16 @@
         <v>2.417198335805305</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.232649527911841</v>
+        <v>1.23264952791184</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4703256058740031</v>
+        <v>0.4703256058740029</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>1.554734168855018</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>50.72485371055473</v>
+        <v>50.7248537105548</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -17608,13 +18544,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2818139493465424</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3163201212882996</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2116189748048782</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5308615161664503</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>13.55569511651993</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -17634,13 +18588,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06724517792463303</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2240306586027145</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08237877488136292</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2593167521095254</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>8.137544244527817</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -17869,19 +18841,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>18.23026222191441</v>
+        <v>18.2302622219145</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3.276690389494526</v>
+        <v>3.276690389494537</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.411712411277223</v>
+        <v>1.411712411277229</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>4.269691115515783</v>
+        <v>4.269691115515794</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>99.72299546864434</v>
+        <v>99.72299546864461</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -17983,10 +18955,10 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2763746714722134</v>
+        <v>0.2763746714722133</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3351081240742604</v>
+        <v>0.3351081240742603</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.2276272218916009</v>
@@ -18311,19 +19283,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4467731156542827</v>
+        <v>0.4274649356154065</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4672673527631628</v>
+        <v>0.4722604929900822</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2724091254599345</v>
+        <v>0.2751918914092486</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6684108883421055</v>
+        <v>0.6538080265761552</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>21.68732564406136</v>
+        <v>21.80727737114892</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -18540,13 +19512,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.3570828139781952</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3629408776760101</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2725611329078674</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5975640668398621</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>16.23367220163345</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -18566,13 +19556,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1438190788030624</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2755572497844696</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1204351782798767</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.37923485968864</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>10.67847684025764</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -18801,19 +19809,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05122798685223218</v>
+        <v>0.05122798685223231</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1696211344916213</v>
+        <v>0.1696211344916215</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.3392986887054141</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2263360043215223</v>
+        <v>0.2263360043215226</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.59069656298636</v>
+        <v>30.5906965629864</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -18831,16 +19839,16 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05307370864084696</v>
+        <v>0.05307370864084698</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.1739118614144849</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3259800742390869</v>
+        <v>0.3259800742390866</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2303773179825804</v>
+        <v>0.2303773179825805</v>
       </c>
       <c r="P7" s="8" t="n">
         <v>30.92436807895467</v>
@@ -18981,16 +19989,16 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.03360164472558847</v>
+        <v>0.03360164472558849</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.1201050982529473</v>
+        <v>0.1201050982529474</v>
       </c>
       <c r="N10" s="8" t="n">
         <v>0.3940816931554409</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.1833075141001821</v>
+        <v>0.1833075141001822</v>
       </c>
       <c r="P10" s="8" t="n">
         <v>21.54477004373994</v>
@@ -19431,19 +20439,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03254388686786383</v>
+        <v>0.0323406745356195</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1276791677736753</v>
+        <v>0.1270658516730667</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3875458951952693</v>
+        <v>0.3868294903460236</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1803992429802959</v>
+        <v>0.1798351315389168</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>22.29171648169503</v>
+        <v>22.19219884445656</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -19461,19 +20469,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.03500045926994553</v>
+        <v>0.03508518003096004</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1333993265206454</v>
+        <v>0.1332723503153669</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.3979219737641663</v>
+        <v>0.3976491328521623</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.1870840967852306</v>
+        <v>0.1873103842048274</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>22.98181223403482</v>
+        <v>22.97019458361644</v>
       </c>
     </row>
     <row r="19" ht="121.5" customHeight="1">
@@ -19652,25 +20660,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.03630176931619644</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1419753730297089</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.4863336086273193</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1905302320268268</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>24.49920624494553</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.04988216236233711</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1623030006885529</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.5712798833847046</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.223343149351703</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>26.94738507270813</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -19678,25 +20722,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02175101079046726</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1134774461388588</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1541928797960281</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1474822388983408</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>16.40171259641647</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.01300613675266504</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.09790369123220444</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1413107067346573</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1140444507754106</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>13.72589021921158</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -19940,7 +21020,7 @@
         <v>0.1604877880314153</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5086224759424275</v>
+        <v>0.5086224759424276</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>17.23376834198856</v>
@@ -19961,19 +21041,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.3811731249652263</v>
+        <v>0.3811731249652256</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.4981519835884473</v>
+        <v>0.4981519835884466</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1755728478314854</v>
+        <v>0.1755728478314852</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.6173921970394721</v>
+        <v>0.6173921970394715</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>20.2183742757116</v>
+        <v>20.21837427571159</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -20529,19 +21609,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.08314698203479097</v>
+        <v>0.09130255156126035</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.2260983950534632</v>
+        <v>0.229039039178474</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.1016018868309059</v>
+        <v>0.1050395063954945</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2883521840298612</v>
+        <v>0.3021631207828983</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>9.170600220647504</v>
+        <v>9.261907956624599</v>
       </c>
     </row>
     <row r="18" ht="42.75" customHeight="1">
@@ -20782,25 +21862,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1602847129106522</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2574910819530487</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1249170303344727</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4003557329558953</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.29103770852089</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1675397306680679</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.265519380569458</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1285942047834396</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.4093161744520584</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>10.57433113455772</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -20808,25 +21924,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05248911306262016</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2031431198120117</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07185507565736771</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2291050262709663</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.205679267644882</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.04726456850767136</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1889481544494629</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.06701572239398956</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.217404159361479</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>6.701543182134628</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -21062,7 +22214,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3418471173409384</v>
+        <v>0.3418471173409383</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.4612866491816356</v>
@@ -21071,7 +22223,7 @@
         <v>0.2373436012349735</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5846769341618826</v>
+        <v>0.5846769341618825</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>20.98453132509512</v>
@@ -21092,19 +22244,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.4438001086159179</v>
+        <v>0.4438001086159178</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.4825953791858225</v>
+        <v>0.4825953791858221</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2010140588175621</v>
+        <v>0.2010140588175619</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.6661832395189163</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>21.99801587611039</v>
+        <v>21.99801587611037</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -21630,19 +22782,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2257749002980249</v>
+        <v>0.2105956905390198</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2679656388515395</v>
+        <v>0.2705905327865431</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2109909153083057</v>
+        <v>0.2055664897315546</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4751577635880792</v>
+        <v>0.4589070608947086</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>12.81950618765328</v>
+        <v>12.99686291748367</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -21722,19 +22874,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.3305043772064774</v>
+        <v>0.3303647562427195</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.3061039210547773</v>
+        <v>0.3051889560105454</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.1942811796367245</v>
+        <v>0.1939402179828874</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.5748951010458146</v>
+        <v>0.5747736565316121</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>15.55029890238591</v>
+        <v>15.50845240278162</v>
       </c>
     </row>
     <row r="19" ht="42" customHeight="1">
@@ -21913,25 +23065,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.3668297529220581</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.348126232624054</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2726840972900391</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.6056647198921679</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>15.63661843538284</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.3495492041110992</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3512963056564331</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2691170871257782</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.5912268634890495</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>15.79979658126831</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -21939,25 +23127,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1462202221155167</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.278465062379837</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1222513094544411</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3823875287133678</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>10.78318580985069</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.1344099342823029</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2539977729320526</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1135277077555656</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.3666196043343875</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>9.895646572113037</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -22193,19 +23417,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.5802260879766749</v>
+        <v>0.5802260879766744</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5447702648915054</v>
+        <v>0.5447702648915055</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2171991775515314</v>
+        <v>0.2171991775515315</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.7617257301527072</v>
+        <v>0.7617257301527068</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>26.90016876058102</v>
+        <v>26.90016876058101</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -22223,19 +23447,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.4934334616941527</v>
+        <v>0.493433461694152</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.5400746124299193</v>
+        <v>0.5400746124299187</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2064348787639194</v>
+        <v>0.2064348787639192</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.7024481914662125</v>
+        <v>0.702448191466212</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>23.18005454047474</v>
+        <v>23.18005454047471</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -22761,19 +23985,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5578752048436643</v>
+        <v>0.5473319437526741</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3722467148496048</v>
+        <v>0.3543095721140663</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2109553549725688</v>
+        <v>0.1942689327671109</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7469104396402987</v>
+        <v>0.7398188587435942</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>19.47474347888358</v>
+        <v>16.85245919530476</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -22791,19 +24015,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.3009280456991906</v>
+        <v>0.2548675513188125</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.3151510596368891</v>
+        <v>0.3002902010949318</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.1876916922944093</v>
+        <v>0.1812883419592774</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.5485690892669679</v>
+        <v>0.5048440861482013</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>13.94050914525257</v>
+        <v>12.90505319699557</v>
       </c>
     </row>
     <row r="18" ht="42.75" customHeight="1">
@@ -23044,25 +24268,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2661622166633606</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.331406831741333</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2105763852596283</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5159091166701366</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>14.1693502664566</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.2588688135147095</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3042213916778564</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2030381709337234</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.5087915226443042</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>13.15386444330215</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -23070,25 +24330,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06787501275539398</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2242661863565445</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08238446712493896</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2605283338821211</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>8.142521232366562</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.06313616782426834</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2135491073131561</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.07919873297214508</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2512691143460898</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>7.758226990699768</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -23326,19 +24622,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01363821122321636</v>
+        <v>0.01363821122321632</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1020216944089988</v>
+        <v>0.1020216944089986</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1558790018801824</v>
+        <v>0.1558790018801819</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1167827522505629</v>
+        <v>0.1167827522505628</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>16.06130398049904</v>
+        <v>16.06130398049902</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -23356,19 +24652,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0115906008148165</v>
+        <v>0.01159060081481646</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.09166419992804341</v>
+        <v>0.09166419992804321</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1381831215852359</v>
+        <v>0.1381831215852358</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.10765965267832</v>
+        <v>0.1076596526783198</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>14.35402841003702</v>
+        <v>14.35402841003698</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -23476,13 +24772,13 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.05506939823898874</v>
+        <v>0.05506939823898872</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1787426340028053</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3309052096064353</v>
+        <v>0.3309052096064352</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2346686988905609</v>
@@ -23920,23 +25216,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.0651670755792579</v>
+        <v>0.06087600209314901</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.2089149134451181</v>
+        <v>0.2001026226685956</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.3845561573303385</v>
+        <v>0.3686862510312565</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.255278427563431</v>
+        <v>0.2467306265811948</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>33.13330960677924</v>
+        <v>31.78229516051587</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -23956,19 +25252,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08115236374224186</v>
+        <v>0.08048405404302011</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2363077067427753</v>
+        <v>0.2359016710940651</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3802832666961062</v>
+        <v>0.3794253284456964</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.284872539466762</v>
+        <v>0.2836971167337097</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>38.47913777457889</v>
+        <v>38.43385747460496</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -24177,25 +25473,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04242772981524467</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1646215617656708</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3735201358795166</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2059799257579356</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>25.47910809516907</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.041667640209198</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1629204154014587</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3670268654823303</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2041265299004468</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>25.28196275234222</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -24203,25 +25535,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02883585728704929</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1470541208982468</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2147627174854279</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1698112401669845</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>19.73751336336136</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.02691405080258846</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1443522274494171</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2112211883068085</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1640550237042087</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>19.40657645463943</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -24460,19 +25828,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>9.632483137018501e-05</v>
+        <v>9.632483137017954e-05</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.00767692761755251</v>
+        <v>0.007676927617552522</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01496128159459929</v>
+        <v>0.01496128159459878</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.009814521453957142</v>
+        <v>0.009814521453956863</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1.48407006444885</v>
+        <v>1.484070064448804</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -24490,19 +25858,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>8.938424574158165e-05</v>
+        <v>8.938424574158632e-05</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.007419336616495994</v>
+        <v>0.007419336616495912</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.01456010092624123</v>
+        <v>0.01456010092624267</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.00945432418217091</v>
+        <v>0.009454324182171157</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>1.443831593687304</v>
+        <v>1.443831593687438</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -25028,19 +26396,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05663878156638863</v>
+        <v>0.0570878802672388</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1894866708888265</v>
+        <v>0.1911788260182158</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.641512091396584</v>
+        <v>0.6409761137865677</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2379890366516673</v>
+        <v>0.2389307018096226</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>32.75387096798606</v>
+        <v>33.02604136057335</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -25090,19 +26458,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05541487835974019</v>
+        <v>0.05442620526226623</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1838278147763232</v>
+        <v>0.1828112982130598</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6590388282905677</v>
+        <v>0.6529570965659531</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2354036498437103</v>
+        <v>0.23329424609764</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>31.90394687369105</v>
+        <v>31.80758117275165</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -25120,19 +26488,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.05610712214487849</v>
+        <v>0.05613104849231292</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1907346677594442</v>
+        <v>0.190321549787498</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.5770784825152969</v>
+        <v>0.5780002159466634</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2368694200290077</v>
+        <v>0.2369199199989585</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>33.303557870282</v>
+        <v>33.22651911265504</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1">
@@ -25311,25 +26679,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06481476128101349</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1978612393140793</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.7193559408187866</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2545874334703374</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>33.42818021774292</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.06070274114608765</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1969127804040909</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.710294246673584</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2463792628166739</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>33.40917825698853</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -25337,25 +26741,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0467359833419323</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1795345693826675</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.369471937417984</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.216185067342618</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>27.01387107372284</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03867676854133606</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1598401516675949</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.3412321507930756</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1966641007945681</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>24.40032809972763</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -25592,19 +27032,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03305091673989576</v>
+        <v>0.03305091673989578</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1369565198446968</v>
+        <v>0.136956519844697</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2991866137424831</v>
+        <v>0.2991866137424857</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.181799110943634</v>
+        <v>0.1817991109436341</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>25.00909018100453</v>
+        <v>25.00909018100465</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -25622,19 +27062,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.03197628338735033</v>
+        <v>0.03197628338735018</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1341609833492038</v>
+        <v>0.134160983349203</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2993693204559253</v>
+        <v>0.2993693204559252</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.178819135965227</v>
+        <v>0.1788191359652266</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>24.57237119175932</v>
+        <v>24.57237119175917</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -26222,19 +27662,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07757457571645299</v>
+        <v>0.0787262175849051</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2250682860546405</v>
+        <v>0.2270610753028687</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.45600858454271</v>
+        <v>0.4586421295107045</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2785221278757811</v>
+        <v>0.2805819266897016</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>38.70949231964673</v>
+        <v>39.04673537659551</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -26252,19 +27692,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.09445445479849664</v>
+        <v>0.09433716404406173</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.2599798772391497</v>
+        <v>0.2600505850967978</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.4912952428839252</v>
+        <v>0.4908788857808269</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.3073344347750454</v>
+        <v>0.3071435560842222</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>46.03652729826989</v>
+        <v>46.08198455753431</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -26443,25 +27883,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05136934295296669</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1766228824853897</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5541796684265137</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2266480596717446</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>29.34794723987579</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05325228348374367</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1839324086904526</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.5583757758140564</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2307645628855169</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>30.42550384998322</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -26469,25 +27945,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03146955370903015</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1539187282323837</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2461564242839813</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1773966000492404</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>21.88133150339127</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03319505974650383</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1545999944210052</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2512333393096924</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1821951144968049</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>21.94691449403763</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">

--- a/data/performance_sheets_option3/window1/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window1/BA47 Overall Model Peformance Results.xlsx
@@ -883,25 +883,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04844702540556579</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.174112410629967</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.3489182037358353</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2201068499742018</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>27.08656660991536</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.04844702540556579</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.174112410629967</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3489182037358353</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2201068499742018</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>27.08656660991536</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -971,25 +1007,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.05271346107426658</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1788375707010083</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.335650476974534</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2295941224732606</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>27.93833242701672</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.05303317521058963</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1790556379040789</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.33625437103495</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2302893293459114</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>27.96232385415919</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -1306,19 +1378,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.05151014632808034</v>
+        <v>0.05150446173345759</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.174467251685485</v>
+        <v>0.1738046751857101</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.3493980666592467</v>
+        <v>0.348032469704917</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2269584682889809</v>
+        <v>0.2269459445186399</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>26.99304330436688</v>
+        <v>26.89254667625114</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -1513,25 +1585,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05143339393455053</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1783607595846264</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3397093524006813</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2267893161825542</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>27.83426830938579</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.04802108267756257</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1740254908250595</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3432874963377202</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2191371321286344</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>27.07107992967986</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -2039,19 +2147,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3380108168186343</v>
+        <v>0.3380108168186344</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.372161362958032</v>
+        <v>0.3721613629580323</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2665849813651968</v>
+        <v>0.2665849813651969</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5813869768223522</v>
+        <v>0.5813869768223523</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>16.65415503897293</v>
+        <v>16.65415503897295</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -2090,25 +2198,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.341187436246534</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3682248017734828</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2680821073384063</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5841125201932706</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>16.48242223288885</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.341187436246534</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3682248017734828</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2680821073384063</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.5841125201932706</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>16.48242223288885</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -2178,25 +2322,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1058690561766854</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2748929194107205</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1439952338375468</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3253752544012612</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.83220631439428</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3751459369575681</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5295344178309039</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2408797946610647</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.6124915811319925</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>22.65398452481627</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -2483,19 +2663,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.08056319968773</v>
+        <v>1.071927329640009</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9607236678357831</v>
+        <v>0.9566283265976321</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4282692321908355</v>
+        <v>0.4269072361741951</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.039501418800249</v>
+        <v>1.035339234087074</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>45.49630483580892</v>
+        <v>45.28844695087708</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -2509,23 +2689,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>3.324595390034762</v>
+        <v>2.902868867429821</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>1.575922431982754</v>
+        <v>1.470988361444042</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.6473131045499689</v>
+        <v>0.5909258846789408</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.823347303734196</v>
+        <v>1.703780756855124</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>93.58819500853393</v>
+        <v>83.21728914942031</v>
       </c>
     </row>
     <row r="17">
@@ -2720,25 +2900,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>6.421219181732121</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>2.274985107032606</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.9405355391042554</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>2.534012466767305</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>138.5690556307291</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>1.790932168775858</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>1.108130311717122</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.4670903536819721</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>1.338257138511078</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>56.09105573780073</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -3294,25 +3510,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2596840165691064</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3292895567667161</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2067857154789246</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5095920099148988</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.11028569766919</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.2596840165691064</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3292895567667161</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2067857154789246</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.5095920099148988</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>14.11028569766919</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -3382,25 +3634,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.282627024930985</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.414520567851806</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1597357950346202</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5316267722105283</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>17.36442226505309</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.224253611682609</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3966930599017995</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1864056431649947</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4735542330954386</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>16.46934969162959</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -3687,19 +3975,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.55025636589836</v>
+        <v>2.551861706201584</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.405969382855494</v>
+        <v>1.406479090905768</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5252722828289916</v>
+        <v>0.5254437740089941</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.596952211526181</v>
+        <v>1.597454758733901</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>75.47040862613436</v>
+        <v>75.50214580702941</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -3717,19 +4005,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.6292173051808108</v>
+        <v>0.626910499103054</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.6855908134748836</v>
+        <v>0.684963747706839</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.2544980450071714</v>
+        <v>0.254346329141128</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.7932321886943385</v>
+        <v>0.7917767987905771</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>30.18214117414757</v>
+        <v>30.15066569676328</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -3924,25 +4212,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>2.080869872585378</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1.259819029781681</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4674999611731502</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.442522052720643</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>68.58081933214362</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.3015712455541357</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.4003174722600081</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2233967143572415</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.5491550287069542</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>17.17193355137638</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -4447,19 +4771,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1687779950721554</v>
+        <v>0.1687779950721552</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2863818616306653</v>
+        <v>0.286381861630665</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0.1310728979873046</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4108259912324869</v>
+        <v>0.4108259912324866</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>11.36815516517942</v>
+        <v>11.36815516517941</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -4489,7 +4813,7 @@
         <v>0.410824767131807</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>11.36806364444474</v>
+        <v>11.36806364444475</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -4498,25 +4822,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1665199396186878</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2819851710152386</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.130436080137935</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.4080685476959574</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.19906587001983</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1665199396186878</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2819851710152386</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.130436080137935</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.4080685476959574</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>11.19906587001983</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -4586,25 +4946,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2437363377085763</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.40428802235733</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.164722832000289</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4936966049190295</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>16.04217901208391</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.190190918832977</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.359418879473248</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1397263019448657</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4361088382880781</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>14.74377094283517</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -4891,19 +5287,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.082059509344019</v>
+        <v>2.087394135277037</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.3582229837286</v>
+        <v>1.360353120741947</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5008671004687928</v>
+        <v>0.5016226296088058</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.442934339928196</v>
+        <v>1.444781691217409</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>70.32212659562731</v>
+        <v>70.46923417228221</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -4921,19 +5317,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>2.430251850246126</v>
+        <v>2.420593191235248</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>1.460983927525552</v>
+        <v>1.457473257267865</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.5396283576523747</v>
+        <v>0.5384754900748961</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.558926505723129</v>
+        <v>1.555825565812327</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>78.45944430626764</v>
+        <v>78.25249753203119</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -5128,25 +5524,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.559614899154422</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1.154852612074316</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4231172704199013</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.248845426445732</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>56.49629993625756</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>1.890515243765543</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>1.246554238851965</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.4634623507195713</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>1.374960088062756</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>65.06553922130338</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -5700,25 +6132,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.08334434966724366</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2241160520577013</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.983259579222235</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2886942148142974</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>41.56803741635998</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.08331623840142535</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2239670884467085</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.983256339906295</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2886455237855342</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>41.52630468103491</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -5788,25 +6256,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.4092166294135924</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5851805854804721</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.9669576870019814</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6397004216143619</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>185.0265945892358</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.4241131909384427</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5965876621133337</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.033344778411077</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.651239733844951</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>187.0492494655881</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -6330,25 +6834,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.07589086679897702</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2149634039079189</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.964357206175213</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2754829700707052</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>40.5433827900623</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.07589086679897702</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2149634039079189</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.964357206175213</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2754829700707052</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>40.5433827900623</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -6851,19 +7391,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05944139690193843</v>
+        <v>0.05944139690193784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1765215458328013</v>
+        <v>0.1765215458328015</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.959215855311311</v>
+        <v>1.959215855311293</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2438060641205186</v>
+        <v>0.2438060641205174</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>35.0727363497224</v>
+        <v>35.07273634972247</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -6881,19 +7421,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.07764993216637815</v>
+        <v>0.07764993216637825</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1826639427116247</v>
+        <v>0.1826639427116249</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>2.307678406212042</v>
+        <v>2.307678406212043</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2786573741467793</v>
+        <v>0.2786573741467795</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>34.86603409789507</v>
+        <v>34.8660340978951</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -6902,25 +7442,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1113066078928587</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2159256276245285</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.546747322740567</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3336264496302094</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>37.87053020733035</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1119633256082257</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2230506558821913</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>2.55925377300787</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3346092132745685</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>38.75738131110202</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -6990,25 +7566,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>57.04727352388323</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>6.528044970548156</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>22.67482735245115</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>7.552964552007591</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>171.4634630019324</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.321663618152657</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.503196279795189</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.177408724785653</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.567153963357973</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>126.3753488435417</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -7295,19 +7907,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.09063751175316044</v>
+        <v>0.08996047691909916</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1895832712980578</v>
+        <v>0.1902638282405866</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.402804391953376</v>
+        <v>2.401834286830535</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.3010606446435011</v>
+        <v>0.2999341209650865</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>34.89473399757702</v>
+        <v>35.1135674972119</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -7325,19 +7937,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.095170532111528</v>
+        <v>0.09518964242108163</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1988970994812185</v>
+        <v>0.1990040112262906</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>2.446373819448879</v>
+        <v>2.447203355672223</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.3084972157273514</v>
+        <v>0.3085281874012189</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>35.97932581144472</v>
+        <v>35.99418565201509</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -7532,25 +8144,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.07547616361874404</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1915471461987928</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>2.2192071335707</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2747292551199162</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>36.39579914374475</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.07444098613751673</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1913608481270397</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>2.208268829193527</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2728387548306082</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>36.49516693386032</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -8053,7 +8701,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06037275856271688</v>
+        <v>0.06037275856271687</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.156778565953851</v>
@@ -8062,10 +8710,10 @@
         <v>2.080153981473095</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.245708686380268</v>
+        <v>0.2457086863802679</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>30.99894626454311</v>
+        <v>30.9989462645431</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -8083,19 +8731,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.06602373205452484</v>
+        <v>0.06602373205452469</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1831380967132789</v>
+        <v>0.1831380967132786</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>2.150445969275254</v>
+        <v>2.150445969275253</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2569508358704537</v>
+        <v>0.2569508358704534</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>35.65463277193286</v>
+        <v>35.6546327719328</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -8104,25 +8752,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'random', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 70, 'max_features': 'log2', 'max_depth': 16, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.0744188291555954</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.19449979685454</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.075348777058906</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2727981472730256</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>37.20979386329391</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.09018555127184806</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1853385780457864</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>2.554202658213083</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3003090928890567</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>33.59122435340475</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -8192,25 +8876,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3947416511073883</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5901225037744507</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.133653262004279</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6282846895376237</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>164.577163830831</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.05535545891899473</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1587086438421614</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>2.002738903462764</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2352774084330978</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>32.86857705274599</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -8734,25 +9454,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06974438937763086</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1651914926755352</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>2.279905791989298</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2640916306466959</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>32.91943899776534</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.06134704416653895</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1653764913566044</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>2.239845319984642</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2476833546416451</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>32.22622782468478</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -9291,7 +10047,7 @@
         <v>0.4527600955901137</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.6648323880047442</v>
+        <v>0.6648323880047439</v>
       </c>
       <c r="O8" s="8" t="n">
         <v>0.8919511949093283</v>
@@ -9306,25 +10062,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.8367088555064947</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.5052320471069482</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6841474433915881</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.9147179103453122</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>23.97553499016742</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.774834050773481</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.489673810659532</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6588926423717774</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.8802465852097814</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>23.50777126099691</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -9394,25 +10186,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>7.450042462277611</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.622319007389794</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.094643276102434</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.729476591267566</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>182.2661389747153</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.6696374856412776</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3954921153748726</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.6134259180980985</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.8183138063367119</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>20.12195965359852</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -9936,25 +10764,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.7838252240448454</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.4196289723706074</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6487996907303354</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.8853390446856195</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>20.69911166108254</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.7301891364785598</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.4138441693008132</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.6230405268395754</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.8545110511155253</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>20.67678108705141</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -10457,16 +11321,16 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7799654922351523</v>
+        <v>0.7799654922351524</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3763915378532431</v>
+        <v>0.3763915378532433</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0.6702585536344448</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8831565502418879</v>
+        <v>0.883156550241888</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>19.23642198924139</v>
@@ -10490,7 +11354,7 @@
         <v>0.8217785712188838</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.3957646294974879</v>
+        <v>0.3957646294974878</v>
       </c>
       <c r="N8" s="8" t="n">
         <v>0.6906115723471701</v>
@@ -10499,7 +11363,7 @@
         <v>0.9065200335452515</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>19.85970752079981</v>
+        <v>19.8597075207998</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -10508,25 +11372,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.8105062543808967</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4986723995204913</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6866979874750219</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.9002812085014863</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>24.00838771843201</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.8105062543808967</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.4986723995204913</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6866979874750219</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.9002812085014863</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>24.00838771843201</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -10596,25 +11496,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>6.290370478653911</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.392876197669609</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.9909970115908061</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.508061099465863</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>166.037078726758</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.696287447439532</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.4171189242926747</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.6526765062794448</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.8344384024237691</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>21.27862373304968</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -11138,25 +12074,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.7285889336599365</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.392702978739525</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6557150839737985</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.8535742109857446</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>20.01337164148628</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.7749567097990572</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.4076899990831176</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.6709915342685233</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.8803162555576588</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>20.51513743307073</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -11659,19 +12631,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8556205052520905</v>
+        <v>0.8556205052520902</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.413515482200267</v>
+        <v>0.4135154822002673</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4010707108506251</v>
+        <v>0.4010707108506252</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9249975704033446</v>
+        <v>0.9249975704033445</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>20.09819868037855</v>
+        <v>20.09819868037857</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -11689,16 +12661,16 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.8140553634358492</v>
+        <v>0.8140553634358488</v>
       </c>
       <c r="M8" s="8" t="n">
         <v>0.3896671335323679</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.3867461174507295</v>
+        <v>0.3867461174507294</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.9022501667696433</v>
+        <v>0.9022501667696431</v>
       </c>
       <c r="P8" s="8" t="n">
         <v>19.28408030118007</v>
@@ -11710,25 +12682,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.7779080174477735</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4197054894321403</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3760687273524595</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8819909395497062</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.08222668241814</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.808111189700239</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.4943536064078694</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.4153011710430879</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.8989500485011606</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>23.4394738819784</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -11798,25 +12806,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.7189341662098242</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4360592551194104</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3790469678521308</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.8478998562388275</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>21.68576075189157</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.6108000192615994</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.372575974086114</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.3397662594632034</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.7815369596260944</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>19.54489538743037</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -12340,25 +13384,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.8658000140161828</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.4698649912530311</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4108135311917259</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.9304837526879138</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>22.96978672294506</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.7249752591475657</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.4266128608330906</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3797283616154157</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.8514547898435745</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>21.20117539146921</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -12843,7 +13923,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04934259570715119</v>
+        <v>0.04934259570715118</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.1745735761355139</v>
@@ -12876,13 +13956,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04844702540556579</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.174112410629967</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3489182037358353</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2201068499742018</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>27.08656660991536</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -12946,13 +14044,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.05555630363603681</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1839551167955749</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3553289331870787</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2357038473085173</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>28.6847997657907</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -13197,19 +14313,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.05825899570054312</v>
+        <v>0.05801778769412235</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1909776216997869</v>
+        <v>0.1904624710158828</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3737555548109417</v>
+        <v>0.3731828972616765</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2413690031891898</v>
+        <v>0.2408688184346873</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>29.71707602134397</v>
+        <v>29.64143053340976</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -13362,13 +14478,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06730096242724515</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2031943800450004</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4061831024928168</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2594242903570234</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>31.47303009618154</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -13829,19 +14963,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0541044580942104</v>
+        <v>0.05410445809427051</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1774158568317094</v>
+        <v>0.1774158568317646</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5610282110685876</v>
+        <v>0.5610282110688684</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2326036502168665</v>
+        <v>0.2326036502169957</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>31.05744989422787</v>
+        <v>31.05744989423495</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -13859,19 +14993,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.05410438919780912</v>
+        <v>0.05410438919782152</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1773625953235527</v>
+        <v>0.1773625953235896</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.5616139642693924</v>
+        <v>0.5616139642692473</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2326035021185389</v>
+        <v>0.2326035021185655</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>31.04979397581124</v>
+        <v>31.04979397581827</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -13880,25 +15014,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06088925984998305</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1955811040767273</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.6386735704534275</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2467574919834919</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>33.68024536253559</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06088925984998305</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1955811040767273</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6386735704534275</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2467574919834919</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>33.68024536253559</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -13968,25 +15138,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.04776183910721703</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1621466999667142</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4592999029195793</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.218544821735078</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>28.73296935631654</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.04779850569023182</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1626899449659598</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.4584567315039134</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2186286936571497</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>28.83039545621374</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -14273,19 +15479,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.0355919263262932</v>
+        <v>0.03555862090417616</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1464505925576693</v>
+        <v>0.1463742228372447</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3426258807864058</v>
+        <v>0.3444329972092453</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.1886582262354154</v>
+        <v>0.1885699363742168</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>27.01371410743217</v>
+        <v>26.99903582505465</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -14303,19 +15509,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.0367801570374165</v>
+        <v>0.03675697049831973</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.149697600989447</v>
+        <v>0.1496892870681442</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.34853054879861</v>
+        <v>0.3484797874532889</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.1917815346622727</v>
+        <v>0.1917210747370245</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>27.57665644250892</v>
+        <v>27.56424956226792</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -14510,25 +15716,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0449307304163503</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1612265662591772</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4563562924082065</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.211968701501779</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>29.23524503427764</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.043804198076513</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1603492280225398</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.448736016427267</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2092945247169954</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>29.27696703236593</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -15013,19 +16255,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0333361623691214</v>
+        <v>0.03333616236912139</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1354201576238786</v>
+        <v>0.1354201576238785</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.405517604236194</v>
+        <v>0.4055176042361941</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0.1825819333042604</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>23.49711752907763</v>
+        <v>23.49711752907762</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -15046,13 +16288,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05333434849253286</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1836392004221472</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.5090276832651499</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2309423055495308</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30.73537468940822</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -15116,13 +16376,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1057370061898916</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2696821760875794</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.538391633366137</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3251722715575417</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>45.88372260589878</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -15367,19 +16645,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.03490955343870354</v>
+        <v>0.03479635918491059</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1372610981455637</v>
+        <v>0.1370581525083183</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.421368182579278</v>
+        <v>0.4199425499747403</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.1868409843655924</v>
+        <v>0.1865378223977931</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>23.66255214477637</v>
+        <v>23.63714861534282</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -15532,13 +16810,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05223583916217416</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.186458700911878</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.479763906539516</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2285516115939114</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>31.55256361757431</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -16014,13 +17310,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06088925984998305</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1955811040767273</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6386735704534275</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2467574919834919</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>33.68024536253559</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -16084,13 +17398,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.06243355814119322</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1983624501263535</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.6054880177791772</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2498670809474374</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>34.33441515977882</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -16335,19 +17667,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04832485965486795</v>
+        <v>0.04838845968537587</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1534735566732143</v>
+        <v>0.1540734502596707</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5262737427400843</v>
+        <v>0.5263336394564134</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2198291601559446</v>
+        <v>0.2199737704486057</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>27.13924247818916</v>
+        <v>27.2482464110252</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -16500,13 +17832,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05432758153673231</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1741576510279473</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.5815010727100183</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2330827782928896</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>30.36187374525458</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -16982,13 +18332,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1665199396186878</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2819851710152386</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.130436080137935</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.4080685476959574</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.19906587001983</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -17052,13 +18420,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2515516030492563</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4104997605991826</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1668437655571289</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5015492030192614</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>16.29610686865247</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -17468,13 +18854,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.106783665801522</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.7112048126102384</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2762718980250087</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.052037863292725</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>37.5559550709001</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -17917,19 +19321,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2523274765792248</v>
+        <v>0.2523389378135062</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2908392008432868</v>
+        <v>0.2908471365857911</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.196952879138065</v>
+        <v>0.1969572772612414</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5023220845027867</v>
+        <v>0.5023334926256722</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>12.63703454830005</v>
+        <v>12.63732438497622</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -17950,13 +19354,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2596840165691064</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3292895567667161</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2067857154789246</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5095920099148988</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.11028569766919</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -18020,13 +19442,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3068762106765008</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4391288284814064</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2239336256605062</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5539640878942432</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>18.64044659404312</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -18271,19 +19711,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.070852144068669</v>
+        <v>1.053213016955929</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9118489746507461</v>
+        <v>0.9039871401789213</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3686344058114282</v>
+        <v>0.3659089596090711</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.034819860685264</v>
+        <v>1.026261670801326</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>42.75473020527991</v>
+        <v>42.26777327027808</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -18436,13 +19876,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5967008592236072</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.6303705400002045</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2927582884386521</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7724641475328206</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>28.11409916742052</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -18885,16 +20343,16 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3375093695397304</v>
+        <v>0.3375093695397303</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.3682979012988186</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2660937567595068</v>
+        <v>0.2660937567595067</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5809555658909986</v>
+        <v>0.5809555658909985</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>16.50044791916627</v>
@@ -18918,13 +20376,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.341187436246534</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3682248017734828</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2680821073384063</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5841125201932706</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>16.48242223288885</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -18988,13 +20464,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3785366172026525</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4767673840220167</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.280920060553132</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6152532951578988</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>21.02052919977605</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -19239,19 +20733,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.420507306069943</v>
+        <v>1.423262007861712</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9849393930946467</v>
+        <v>0.9856507139009772</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4031978064830951</v>
+        <v>0.403269330368316</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.191850370671563</v>
+        <v>1.193005451731765</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>51.26322677411829</v>
+        <v>51.29959686581689</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -19404,13 +20898,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.775691767707401</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.7203011713133327</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3227411878593594</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.8807336531025717</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>34.23877572022088</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -19901,13 +21413,13 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.04415968932747596</v>
+        <v>0.04415968932747597</v>
       </c>
       <c r="M8" s="8" t="n">
         <v>0.1581623272323826</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.4454893200116322</v>
+        <v>0.4454893200116324</v>
       </c>
       <c r="O8" s="8" t="n">
         <v>0.2101420693899153</v>
@@ -19922,25 +21434,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06073650231656759</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1490697384818899</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3481573517333942</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2464477679277449</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>27.75337638647806</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06031308885169412</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1476585384052541</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.338162448325363</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2455872326724134</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>29.80044169379925</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -20010,25 +21558,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03644721702500474</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1382052281142963</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3495881394861247</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1909115424090559</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>23.81267042635567</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.03654656493557721</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1379192238288817</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.3483945148999618</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.191171558908686</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>23.76695476145137</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -20315,19 +21899,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.03126459059366381</v>
+        <v>0.03110705686637048</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1240404350095905</v>
+        <v>0.124097068945289</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3187798620197052</v>
+        <v>0.3171501137073245</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.1768179589115987</v>
+        <v>0.1763719276596207</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>21.90364587417672</v>
+        <v>21.90519403714005</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -20345,19 +21929,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.03199913629225977</v>
+        <v>0.03201891505115453</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1301976000519426</v>
+        <v>0.1302651696463943</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.3114594889941408</v>
+        <v>0.3109721457554617</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.1788830240471682</v>
+        <v>0.1789382995648347</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>22.75762746207916</v>
+        <v>22.76975312486082</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -20552,25 +22136,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0353081469286318</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1407582796763494</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3348399489631766</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.187904621892682</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>24.7013219874438</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.04778765120127219</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1657700194354128</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.392624539054493</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.218603868221201</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>28.34636118335704</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -21073,19 +22693,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1171383492677213</v>
+        <v>0.117138349267711</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2110854633053987</v>
+        <v>0.2110854633053994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1011951231733909</v>
+        <v>0.1011951231733904</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3422548016722648</v>
+        <v>0.3422548016722498</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>8.578946782368552</v>
+        <v>8.578946782368604</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -21103,19 +22723,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.1176776269201529</v>
+        <v>0.1176776269201406</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2110151140147666</v>
+        <v>0.2110151140147554</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.1012463885755906</v>
+        <v>0.1012463885755856</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.3430417276661148</v>
+        <v>0.343041727666097</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>8.575150301806485</v>
+        <v>8.575150301806078</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -21124,25 +22744,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1665199396186878</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2819851710152386</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.130436080137935</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.4080685476959574</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.19906587001983</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1665199396186878</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2819851710152386</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.130436080137935</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.4080685476959574</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>11.19906587001983</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -21212,25 +22868,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2489249843208304</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4078405940815966</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1660253843217124</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4989238261707195</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>16.18622213880596</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.2489973760885563</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.408002048398514</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1660678424249697</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4989963688129968</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>16.1929270675913</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -21754,25 +23446,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.3027164304507336</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3739827645760064</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1564653957702437</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.5501967197746035</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>16.58529198559777</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.1632745578410544</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2959829481600388</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1195434905839329</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.4040724660763887</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>12.03987734971684</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -22276,19 +24004,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2756101994244307</v>
+        <v>0.2756101994244406</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2978009901406862</v>
+        <v>0.2978009901406917</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2322568849559949</v>
+        <v>0.2322568849559979</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5249859040245087</v>
+        <v>0.5249859040245182</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>13.88650512563525</v>
+        <v>13.88650512563545</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -22306,19 +24034,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.2741457424572808</v>
+        <v>0.2740955768209786</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2982242621536865</v>
+        <v>0.2981669965193451</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.231655658864657</v>
+        <v>0.2316278964134945</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.5235892879512345</v>
+        <v>0.5235413802374924</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>13.90996094331861</v>
+        <v>13.90765744280735</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -22327,25 +24055,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.341187436246534</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3682248017734828</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2680821073384063</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5841125201932706</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>16.48242223288885</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.341187436246534</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3682248017734828</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2680821073384063</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.5841125201932706</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>16.48242223288885</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -22415,25 +24179,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3731308125438813</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4732609522615703</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2811322087660417</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6108443439566918</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>20.83577308931018</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.373009551065023</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.4732990771047635</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2810763101477789</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.6107450786252994</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>20.83799293110431</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -22720,19 +24520,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1967885227250526</v>
+        <v>0.2059759170147928</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2777077867316536</v>
+        <v>0.2836579520023714</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1820853015175099</v>
+        <v>0.1842683680448104</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.4436085241798816</v>
+        <v>0.4538456973628733</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>13.44324073191495</v>
+        <v>13.73823014652574</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -22750,19 +24550,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.44733719976811</v>
+        <v>0.4467539638798302</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.3095467194245372</v>
+        <v>0.308908800617141</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.2123645155723195</v>
+        <v>0.2123133116887149</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.6688327143375314</v>
+        <v>0.6683965618402224</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>18.06138660948793</v>
+        <v>18.04453093841709</v>
       </c>
     </row>
     <row r="17" ht="60.75" customHeight="1">
@@ -22957,25 +24757,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.2857422179922576</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3846431671502714</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.226483186736463</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.5345486114398368</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>17.71382329024589</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.2048475346239521</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2986336142128798</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1975508633976002</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.4526008557481438</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>14.13478276923502</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -23479,19 +25315,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2373643446321934</v>
+        <v>0.23736434463211</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3026115059720212</v>
+        <v>0.3026115059718753</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1943280227579158</v>
+        <v>0.1943280227578714</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4872005178899068</v>
+        <v>0.4872005178898212</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>13.13338329483835</v>
+        <v>13.13338329483286</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -23509,19 +25345,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.2375715276811619</v>
+        <v>0.2375715276811453</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.3028935687913067</v>
+        <v>0.3028935687912906</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.1944154889184956</v>
+        <v>0.1944154889184905</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.4874130975683377</v>
+        <v>0.4874130975683206</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>13.14424435082213</v>
+        <v>13.14424435082157</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -23530,25 +25366,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2596840165691064</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3292895567667161</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2067857154789246</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5095920099148988</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.11028569766919</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.2596840165691064</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3292895567667161</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2067857154789246</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.5095920099148988</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>14.11028569766919</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -23618,25 +25490,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3095104884542894</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4383072569128164</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2266477596239752</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5563366682632823</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>18.54810848087062</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3095339614824059</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.4383760602167184</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2266832816625303</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.5563577639274983</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>18.55094295425372</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -24160,25 +26068,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.3125281693014044</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3891029623217624</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1974774613896546</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.5590421891963114</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>17.37977034082082</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.2345847622281019</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3241474079452439</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1757960276887504</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.4843395113224833</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>13.96522673335688</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -24735,25 +26679,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04844702540556579</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.174112410629967</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.3489182037358353</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2201068499742018</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>27.08656660991536</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.04844702540556579</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.174112410629967</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3489182037358353</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2201068499742018</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>27.08656660991536</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -24823,25 +26803,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03147573631998189</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1393414626473896</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2545189819856257</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1774140251501608</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>21.90508111528566</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.03120996851378005</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.13931078138972</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.253010443455173</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1766634328710389</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>21.86410402224818</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -25128,19 +27144,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.08046582527373673</v>
+        <v>0.08014480048742509</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2342857308349722</v>
+        <v>0.2334027719498325</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3834506461829295</v>
+        <v>0.3820875985517856</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2836649877474073</v>
+        <v>0.283098570267363</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>38.09589035153365</v>
+        <v>37.92577387138416</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -25158,19 +27174,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.08484822958886105</v>
+        <v>0.0846639359541243</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.2500382222708055</v>
+        <v>0.2498619907785253</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.4308482366134628</v>
+        <v>0.4306918437284007</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2912871943441061</v>
+        <v>0.2909706788563485</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>41.0631230841334</v>
+        <v>41.03567017595829</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -25365,25 +27381,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05332242868306164</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1816258364521582</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3453322876362733</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.23091649720854</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>28.3402665347294</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05332242868306164</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1816258364521582</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3453322876362733</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.23091649720854</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>28.3402665347294</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -25941,25 +27993,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06088925984998305</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1955811040767273</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.6386735704534275</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2467574919834919</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>33.68024536253559</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="15" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="15" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06088925984998305</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1955811040767273</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6386735704534275</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2467574919834919</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>33.68024536253559</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -26029,25 +28117,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.06300756054960438</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2003098699824897</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.6081251731799507</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2510130684837034</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>34.66953589894526</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.06300935430109718</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.2003131103595605</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.6081266897068249</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2510166414823869</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>34.67006418239204</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -26364,19 +28488,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.05284416787452877</v>
+        <v>0.05303553568473603</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.176233811410995</v>
+        <v>0.1767727253051342</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.5871568521167421</v>
+        <v>0.5877739289473117</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.229878593771862</v>
+        <v>0.2302944543073845</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>30.87966159355015</v>
+        <v>30.95612996822356</v>
       </c>
     </row>
     <row r="17">
@@ -26571,25 +28695,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06318380208330351</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1992639123118889</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6904896170836068</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2513638838085208</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>33.93424957136728</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.0565324723925108</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1850495424049102</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.5988002359341368</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2377655828594854</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>32.32913813624691</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -27094,19 +29254,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05383889426661078</v>
+        <v>0.05383889426661076</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.1844459603475795</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5054832859922485</v>
+        <v>0.5054832859922483</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.232032097492159</v>
+        <v>0.2320320974921589</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>30.88715710577964</v>
+        <v>30.88715710577963</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -27124,16 +29284,16 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.05383736016795983</v>
+        <v>0.05383736016795981</v>
       </c>
       <c r="M8" s="8" t="n">
         <v>0.1844445790352291</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.5054811690197258</v>
+        <v>0.505481169019726</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2320287916788773</v>
+        <v>0.2320287916788772</v>
       </c>
       <c r="P8" s="8" t="n">
         <v>30.8869663542422</v>
@@ -27145,25 +29305,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05333434849253286</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1836392004221472</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.5090276832651499</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2309423055495308</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30.73537468940822</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.05333434849253286</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1836392004221472</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.5090276832651499</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2309423055495308</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>30.73537468940822</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -27233,25 +29429,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.05661316758715664</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.189212711456517</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4914705616444063</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2379352172066099</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>31.76669563628465</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.0565937525489769</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1891674783957456</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.4914425729420472</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.237894414707401</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>31.75904272031335</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -27775,25 +30007,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05708941605315767</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1903011759666142</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.49430443567581</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2389339156611252</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>31.93584028500944</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.06471071590660772</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2107041881438353</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.4936309428127956</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2543830102554173</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>35.99578826964828</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">

--- a/data/performance_sheets_option3/window1/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window1/BA47 Overall Model Peformance Results.xlsx
@@ -1162,19 +1162,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04753877293642731</v>
+        <v>0.04782461270304932</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1694981700224916</v>
+        <v>0.169841879221391</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3060756118372485</v>
+        <v>0.3057500467735583</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2180338802489817</v>
+        <v>0.2186883917885202</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>26.57027277191916</v>
+        <v>26.63578180455797</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -1192,19 +1192,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05778002418374747</v>
+        <v>0.05793623416923478</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1810941114886929</v>
+        <v>0.1811546640468206</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3488587360395899</v>
+        <v>0.3484757540145436</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2403747577923844</v>
+        <v>0.2406994685686588</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>27.84924759265438</v>
+        <v>27.87113726915815</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -1224,19 +1224,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07144666498247067</v>
+        <v>0.07034854138090758</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2124026429265761</v>
+        <v>0.2114823228003608</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4169487081733393</v>
+        <v>0.4172056567556154</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2672950897088659</v>
+        <v>0.2652329945178533</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>33.64387110666537</v>
+        <v>33.4601662529774</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -1254,19 +1254,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.120776082443309</v>
+        <v>0.1088288500423095</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2957640515569771</v>
+        <v>0.2829967702282941</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5334703707054245</v>
+        <v>0.5194284008763507</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3475285347180991</v>
+        <v>0.3298921794197455</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>52.63812285136431</v>
+        <v>49.55032438958884</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4334251715513088</v>
+        <v>0.4266370414123486</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6011129839437513</v>
+        <v>0.5964264174334697</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2666290698199031</v>
+        <v>0.2664584696113272</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6583503410429046</v>
+        <v>0.6531745872370944</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>27.30437861612315</v>
+        <v>27.09366386041135</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -2503,23 +2503,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.9640044801439051</v>
+        <v>0.894228073201574</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.7882896734635707</v>
+        <v>0.773555223217453</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3194468336735463</v>
+        <v>0.3130703150879155</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.9818372982036815</v>
+        <v>0.9456363324246664</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>37.07500326397596</v>
+        <v>35.87464662272004</v>
       </c>
     </row>
     <row r="14">
@@ -2539,19 +2539,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3479183692179496</v>
+        <v>0.3590938153752732</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4717373507990365</v>
+        <v>0.4866405467691727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2770190035639802</v>
+        <v>0.2817324514040365</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.589846055524617</v>
+        <v>0.5992443703325657</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>20.91587374458163</v>
+        <v>21.54225009302883</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -2569,19 +2569,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.6742079933501661</v>
+        <v>0.6328726050940819</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.6431417972433315</v>
+        <v>0.6080435637924687</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3956655266756554</v>
+        <v>0.3841973569517719</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8211016948893518</v>
+        <v>0.7955329063552821</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>26.58313534026457</v>
+        <v>25.15294205067361</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -3785,53 +3785,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.6824535963602113</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.7469609144765588</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.2880469322879861</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.8261074968551074</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>32.75402243782088</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.6908046049638102</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.7613312813310574</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.2994650114556925</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.831146560459592</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>33.41596340559083</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>0.1929222509199961</v>
+        <v>0.1925422435711667</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3705107163434812</v>
+        <v>0.3696874338783736</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1417065847019209</v>
+        <v>0.1412802618566836</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.4392291553619774</v>
+        <v>0.4387963577460126</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>15.14219313497346</v>
+        <v>15.09463137765473</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -3851,19 +3851,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2260041636079499</v>
+        <v>0.217827713639612</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.386900145070648</v>
+        <v>0.3779279903604303</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1973608386798864</v>
+        <v>0.1948290425010798</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4753989520475933</v>
+        <v>0.4667201663091193</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>16.64618567621502</v>
+        <v>16.28047943580241</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -3881,19 +3881,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.5334293503040183</v>
+        <v>0.5089600754146586</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.6123634405176346</v>
+        <v>0.5928022445646527</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2993026921057919</v>
+        <v>0.2919941931462042</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7303624787076745</v>
+        <v>0.7134143784748515</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>25.94389387080787</v>
+        <v>25.06634983116772</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5353415619006113</v>
+        <v>0.5353415619006114</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.6340673769926954</v>
@@ -3922,7 +3922,7 @@
         <v>0.2771774935712131</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.731670391570283</v>
+        <v>0.7316703915702831</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>27.44773097692577</v>
@@ -5101,19 +5101,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7566322822838422</v>
+        <v>0.7657392993296395</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7939818542342326</v>
+        <v>0.803354755075853</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2889254703569081</v>
+        <v>0.2923472621363629</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8698461256359323</v>
+        <v>0.8750653114651725</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>35.03188296338001</v>
+        <v>35.44996724998132</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -5131,19 +5131,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>1.029180548990401</v>
+        <v>1.03047983994014</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.9249943076298521</v>
+        <v>0.925634423743036</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.340154575944649</v>
+        <v>0.3405179037741792</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.014485361644219</v>
+        <v>1.015125529153976</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>42.83292601753551</v>
+        <v>42.89185245663258</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -5163,19 +5163,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.682321992668167e-05</v>
+        <v>2.683976296777369e-05</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004493549960500168</v>
+        <v>0.004492802442969182</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.001673149105699468</v>
+        <v>0.001671776872376179</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.005179113816733677</v>
+        <v>0.005180710662425927</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1675007986018102</v>
+        <v>0.1673634735282677</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -5193,19 +5193,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.02464411997082523</v>
+        <v>0.02053779837722841</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1094707842631822</v>
+        <v>0.09484616035974779</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.05066845384561369</v>
+        <v>0.04563702312811145</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1569844577365072</v>
+        <v>0.1433101475026399</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>4.701607339440061</v>
+        <v>4.192451759630324</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -5258,7 +5258,7 @@
         <v>0.8028118909056675</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.850652957471027</v>
+        <v>0.8506529574710268</v>
       </c>
       <c r="N15" s="8" t="n">
         <v>0.3132503873755063</v>
@@ -6411,19 +6411,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.08174751087639226</v>
+        <v>0.0817388606434457</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2204772196197808</v>
+        <v>0.2204336844674062</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.015346551801575</v>
+        <v>2.015202668382321</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2859152162379475</v>
+        <v>0.2859000885684467</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>40.96880450254524</v>
+        <v>40.96170972969759</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -6441,19 +6441,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.08042808411116231</v>
+        <v>0.08041592378196985</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2172923956552947</v>
+        <v>0.2172326090675051</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>2.006659672495837</v>
+        <v>2.006789542272275</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2835984557630071</v>
+        <v>0.2835770156094634</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>40.54288430404892</v>
+        <v>40.53304193874445</v>
       </c>
     </row>
     <row r="14">
@@ -6473,19 +6473,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08248615609615798</v>
+        <v>0.08347151268719688</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2292291739065206</v>
+        <v>0.2300586796357965</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.963893074765767</v>
+        <v>1.972662065636879</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2872040321725271</v>
+        <v>0.2889143691255194</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>42.40863814754649</v>
+        <v>42.47368269166133</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -6503,19 +6503,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.08288001582416632</v>
+        <v>0.08231178539478079</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2278172950244229</v>
+        <v>0.2263661839631607</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.953447286331699</v>
+        <v>1.951663122018345</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.28788889493026</v>
+        <v>0.2869003056721634</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>42.29199732255366</v>
+        <v>42.09190992520988</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -7721,19 +7721,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07979565640956726</v>
+        <v>0.07963147539351006</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1798318494069364</v>
+        <v>0.1801741421529434</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.287379398418312</v>
+        <v>2.28736318437162</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2824812496601629</v>
+        <v>0.2821904948674035</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>34.09034383547344</v>
+        <v>34.18592962808889</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -7751,19 +7751,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.08535891410765392</v>
+        <v>0.08536449244007495</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1884644403182146</v>
+        <v>0.1884682371524556</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>2.372092166033287</v>
+        <v>2.372113845058515</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2921624789524725</v>
+        <v>0.2921720254235079</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>34.90431264541765</v>
+        <v>34.9032743634439</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -7783,19 +7783,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0772345063614539</v>
+        <v>0.07630192656413227</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2065035842023271</v>
+        <v>0.2077661734707607</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.229316446864856</v>
+        <v>2.210961058453662</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2779109684079668</v>
+        <v>0.276228033631875</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>39.09496451590651</v>
+        <v>39.37801673921883</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -7813,19 +7813,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.07174151419180189</v>
+        <v>0.07187830768192523</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1817317706270417</v>
+        <v>0.1819240890749896</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>2.190311614942378</v>
+        <v>2.1929434018389</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2678460643574997</v>
+        <v>0.268101301156718</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>35.11084468588857</v>
+        <v>35.13721099089352</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08325397348172776</v>
+        <v>0.08325397348172775</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.1870412435023257</v>
@@ -7887,7 +7887,7 @@
         <v>0.293979814307505</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>36.35987148985195</v>
+        <v>36.35987148985193</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -9031,19 +9031,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06232067637827919</v>
+        <v>0.06229022517413649</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1482229001388679</v>
+        <v>0.1482864255431348</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.240917061685633</v>
+        <v>2.240911555097826</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2496410951311486</v>
+        <v>0.2495800977124107</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>30.08316529784799</v>
+        <v>30.09405144068408</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -9061,19 +9061,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.06234772065671384</v>
+        <v>0.06231353346056387</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.154639097777807</v>
+        <v>0.1546282410626998</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>2.266417413282932</v>
+        <v>2.265566393149162</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2496952555750987</v>
+        <v>0.2496267883472522</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>30.11648053973765</v>
+        <v>30.1064966027312</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -9093,19 +9093,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1037890454512865</v>
+        <v>0.1033774173730206</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2645213184609219</v>
+        <v>0.2641820422753459</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.948549378325618</v>
+        <v>1.947414065028084</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3221630727617405</v>
+        <v>0.3215235875842092</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>48.23626408444076</v>
+        <v>48.20417070931921</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -9123,19 +9123,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06083854756608292</v>
+        <v>0.06077388839321395</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1806777355900532</v>
+        <v>0.1809469144139687</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>2.116122892437004</v>
+        <v>2.111665492841754</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2466547132452225</v>
+        <v>0.2465236061581405</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>35.50565240083149</v>
+        <v>35.55806151530223</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -9155,19 +9155,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06401885010341925</v>
+        <v>0.06402039520372269</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1532464395303934</v>
+        <v>0.1532685870359147</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.19894275782114</v>
+        <v>2.19899182162939</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2530194658586948</v>
+        <v>0.2530225191632608</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>30.49726649791337</v>
+        <v>30.50181463777772</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -10341,19 +10341,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7568575436747608</v>
+        <v>0.7744847223040554</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4044518293343883</v>
+        <v>0.405526402997754</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6337406881284091</v>
+        <v>0.6420501408614893</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8699755994709052</v>
+        <v>0.8800481363562197</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>20.16458801937616</v>
+        <v>20.13337005754142</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>0.4164403270434652</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6293192698650479</v>
+        <v>0.6293192698650478</v>
       </c>
       <c r="O13" s="8" t="n">
         <v>0.8635310851654054</v>
@@ -10403,19 +10403,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9402448513787209</v>
+        <v>0.930624872358748</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5206119382552171</v>
+        <v>0.5156106829081213</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7159919861277497</v>
+        <v>0.7123270985641471</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9696622357185625</v>
+        <v>0.9646890029220547</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>24.02290441410327</v>
+        <v>23.87946612600044</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -10433,19 +10433,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.7293615176894752</v>
+        <v>0.7325048353099456</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5199906532103231</v>
+        <v>0.5223286772544793</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6018860466907003</v>
+        <v>0.6020099676381397</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.854026649285299</v>
+        <v>0.8558649632447548</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>25.22337706913548</v>
+        <v>25.30724513885542</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -10495,16 +10495,16 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.7995533450592811</v>
+        <v>0.7995533450592808</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.4487743231334595</v>
+        <v>0.4487743231334594</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.66189131790184</v>
+        <v>0.6618913179018399</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.8941774684363731</v>
+        <v>0.8941774684363729</v>
       </c>
       <c r="P15" s="8" t="n">
         <v>21.62080698441242</v>
@@ -11651,7 +11651,7 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7105612899203078</v>
+        <v>0.7105612899203079</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.3773838305991469</v>
@@ -11663,7 +11663,7 @@
         <v>0.8429479758088917</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>19.57018449954308</v>
+        <v>19.57018449954307</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>0.7057919556862283</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3954402589354759</v>
+        <v>0.395440258935476</v>
       </c>
       <c r="N13" s="8" t="n">
         <v>0.5870135094831302</v>
@@ -11713,19 +11713,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.069140172297558</v>
+        <v>1.067405144586655</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7418001043512537</v>
+        <v>0.7400410708391992</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7439779220675682</v>
+        <v>0.7426465801188021</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.033992346343801</v>
+        <v>1.033153011216952</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>35.94064948774056</v>
+        <v>35.88532974583173</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -11743,19 +11743,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.065885019210875</v>
+        <v>1.069230759000404</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.7239104612277009</v>
+        <v>0.7250418672277814</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.7592102721237999</v>
+        <v>0.7599066610093956</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.032417076191049</v>
+        <v>1.034036149755126</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>35.54215447501674</v>
+        <v>35.61294122069144</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -11811,7 +11811,7 @@
         <v>0.4391197840116309</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6677616955552683</v>
+        <v>0.6677616955552682</v>
       </c>
       <c r="O15" s="8" t="n">
         <v>0.8442028428761478</v>
@@ -12964,7 +12964,7 @@
         <v>0.7807949213318834</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4148218768119543</v>
+        <v>0.4148218768119544</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.3864408069701071</v>
@@ -12991,19 +12991,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.6814678808748362</v>
+        <v>0.681253397276347</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3693224649239215</v>
+        <v>0.3693436543054735</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.35288715910593</v>
+        <v>0.3528563837577098</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.8255106788375521</v>
+        <v>0.8253807589690634</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>18.89484581194088</v>
+        <v>18.89651869161739</v>
       </c>
     </row>
     <row r="14">
@@ -13023,19 +13023,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8354690473143127</v>
+        <v>0.8433559609163713</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4473224617972951</v>
+        <v>0.4468979193019311</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4076628817715304</v>
+        <v>0.4090674925999497</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.914039959364093</v>
+        <v>0.918344140786215</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>21.47556118262651</v>
+        <v>21.43549362846887</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -13053,19 +13053,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.9353131791113829</v>
+        <v>0.9368426487448001</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5964683921448538</v>
+        <v>0.5968305651512215</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.442492993647983</v>
+        <v>0.4427999537570252</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.9671159077956389</v>
+        <v>0.9679063222981861</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>28.28805145288233</v>
+        <v>28.29153245699589</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -14181,19 +14181,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06219162312066633</v>
+        <v>0.0623408958777275</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1907014380708817</v>
+        <v>0.1909769012442592</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3783921758640898</v>
+        <v>0.3786855412628771</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2493824835882952</v>
+        <v>0.2496815889843051</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>29.73976855758357</v>
+        <v>29.7809600514875</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -14225,19 +14225,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04709579432699866</v>
+        <v>0.04775393354380646</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1797987052772627</v>
+        <v>0.1815304752379422</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3464515792362015</v>
+        <v>0.3464340410478971</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2170156545666664</v>
+        <v>0.2185267341626796</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>28.50427785309116</v>
+        <v>28.85071189846893</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0582254822741013</v>
+        <v>0.05822548227410129</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.183802417676406</v>
@@ -14278,10 +14278,10 @@
         <v>0.3539864421930254</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2412995695688273</v>
+        <v>0.2412995695688272</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>28.679134941078</v>
+        <v>28.67913494107799</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -15293,19 +15293,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03657505512544389</v>
+        <v>0.03656783285838837</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1475196991210191</v>
+        <v>0.1475059964804845</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3313489002861134</v>
+        <v>0.3310666940263506</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1912460591108844</v>
+        <v>0.1912271760456352</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>26.59710491301672</v>
+        <v>26.5940087048199</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -15323,19 +15323,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.0387936317327458</v>
+        <v>0.03874676166065973</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1552966317934691</v>
+        <v>0.1551865770737828</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3358656570638519</v>
+        <v>0.3354320592911148</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1969609903832376</v>
+        <v>0.1968419712882893</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>28.27007816495085</v>
+        <v>28.24834360179573</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -15355,19 +15355,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06266517052518886</v>
+        <v>0.06219671611661811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2125401296035691</v>
+        <v>0.2111744462858521</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5977446375186141</v>
+        <v>0.5986896873493699</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2503301230878714</v>
+        <v>0.2493926945935228</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>37.54714030993726</v>
+        <v>37.27988186746291</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -15385,19 +15385,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.04442241926100376</v>
+        <v>0.04518463841236366</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1682181053163362</v>
+        <v>0.1708342302657901</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5273762123337757</v>
+        <v>0.5268842006071938</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2107662668953544</v>
+        <v>0.2125667857694698</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>30.29062807140021</v>
+        <v>30.76069904298571</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -16513,19 +16513,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06315930840969841</v>
+        <v>0.06309353886641196</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1954075644074632</v>
+        <v>0.1955145226044188</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4715418551036064</v>
+        <v>0.4718871597087297</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2513151575406832</v>
+        <v>0.2511842727290305</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>35.48007134111235</v>
+        <v>35.4734356765354</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -16557,19 +16557,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1122257158558439</v>
+        <v>0.1122799582088905</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2617293901372276</v>
+        <v>0.2617276144490382</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.404028889907281</v>
+        <v>0.4043744323086809</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3350010684398543</v>
+        <v>0.3350820171374324</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>45.31066142419935</v>
+        <v>45.31478142658052</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0480135552396485</v>
+        <v>0.04801355523964849</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.1677912880197609</v>
@@ -17535,19 +17535,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1430561051123839</v>
+        <v>0.1432859360752669</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3052886681759358</v>
+        <v>0.3055158067723472</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7457401706647429</v>
+        <v>0.7460723936853892</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.3782275837539931</v>
+        <v>0.3785312881061048</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>58.90851619812567</v>
+        <v>58.97271936982493</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -17579,19 +17579,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05813447539240891</v>
+        <v>0.05846403939053797</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1865684755784878</v>
+        <v>0.1873670611846444</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6083027291863879</v>
+        <v>0.6112608068449167</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2411109192724562</v>
+        <v>0.2417933816102872</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>32.33324168739809</v>
+        <v>32.45224917793217</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -18557,19 +18557,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.534746385302387</v>
+        <v>1.540782064859077</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9862631594351541</v>
+        <v>0.9868469503498843</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3790281103383404</v>
+        <v>0.3792384633761565</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.238848814546144</v>
+        <v>1.241282427515623</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>53.24228843916408</v>
+        <v>53.40418905346852</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -18601,19 +18601,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1606359545710515</v>
+        <v>0.1613193098453252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2641631769210307</v>
+        <v>0.2614333021157794</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1262107813209916</v>
+        <v>0.1257054515762414</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4007941548613845</v>
+        <v>0.4016457516834022</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>10.5002725592777</v>
+        <v>10.39065787114794</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -19579,19 +19579,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9083216679209872</v>
+        <v>0.8894858603663572</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7208343778342511</v>
+        <v>0.7149916559992299</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2902514934641238</v>
+        <v>0.2883073376732927</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9530591104023859</v>
+        <v>0.9431255803795999</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>34.38412398599483</v>
+        <v>34.02195705434792</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -19623,19 +19623,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.293939566197064</v>
+        <v>0.2875003749422267</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.371879416961149</v>
+        <v>0.3661184015730993</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2240932769896084</v>
+        <v>0.2206721601037396</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5421619372448273</v>
+        <v>0.5361906143734956</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>15.58314694712686</v>
+        <v>15.41299752651552</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -20601,19 +20601,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3.1897030545144</v>
+        <v>3.183516793583657</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.464493009441939</v>
+        <v>1.464141482710857</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6258735687275926</v>
+        <v>0.6257002567861477</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.785973979237772</v>
+        <v>1.784241237496672</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>68.51628271720583</v>
+        <v>68.49580087152751</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -20641,23 +20641,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3819780126660863</v>
+        <v>0.5137748989066412</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3604724599355583</v>
+        <v>0.4438697993391033</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.282391973993888</v>
+        <v>0.3090521757715387</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6180436980231142</v>
+        <v>0.716780928113075</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>15.86679819311851</v>
+        <v>20.04460112243276</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -21713,19 +21713,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03340027012689459</v>
+        <v>0.03332030081596806</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1329516604683716</v>
+        <v>0.1327368318656647</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3143463671980413</v>
+        <v>0.3138570044149345</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.182757407857779</v>
+        <v>0.1825384913270844</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>23.57642659491528</v>
+        <v>23.54307850915723</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -21743,19 +21743,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.03478475099526275</v>
+        <v>0.03487850495182161</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1360494184047334</v>
+        <v>0.1360780888436622</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.30605097713249</v>
+        <v>0.3058000953564823</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1865067049606066</v>
+        <v>0.1867578778842317</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>24.04211595290023</v>
+        <v>24.03919047689707</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -21775,19 +21775,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1061651901078505</v>
+        <v>0.1086896368044592</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2720537914027995</v>
+        <v>0.2757135688959685</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6958820643388623</v>
+        <v>0.7056947555176416</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3258300018534979</v>
+        <v>0.3296811138122097</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>45.14707833466141</v>
+        <v>45.73257026682357</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -21805,19 +21805,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.09111761907809353</v>
+        <v>0.09128670867927462</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2479957164483376</v>
+        <v>0.2485618621905018</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5824072155216431</v>
+        <v>0.5841834558354408</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.301856951349631</v>
+        <v>0.302136903868552</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>42.06332882104338</v>
+        <v>42.15970928265024</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -23023,19 +23023,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2448045112601444</v>
+        <v>0.2471783246446872</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3688300024439142</v>
+        <v>0.3704171157843664</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1434908140710318</v>
+        <v>0.143795299143082</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4947772339751945</v>
+        <v>0.4971703175418734</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>15.36134756419265</v>
+        <v>15.43755025118084</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -23053,19 +23053,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.1766465875668892</v>
+        <v>0.1779070317387476</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3165629623400856</v>
+        <v>0.3181701435890488</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1206673177905332</v>
+        <v>0.1213039003168545</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.420293454109018</v>
+        <v>0.4217902698483544</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>12.6988286027498</v>
+        <v>12.77357666420874</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -23085,19 +23085,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1311101740441771</v>
+        <v>0.131228866179128</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.210106033170076</v>
+        <v>0.2098914300555686</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1045139042388348</v>
+        <v>0.1045283201063035</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.362091389077643</v>
+        <v>0.3622552500366669</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>8.574541653233473</v>
+        <v>8.567426666826996</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -23115,19 +23115,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1323285995233499</v>
+        <v>0.1306643543324128</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2285226403261222</v>
+        <v>0.2273234537551931</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1091557961306995</v>
+        <v>0.1091125880307054</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3637699816138626</v>
+        <v>0.3614752471918552</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>9.217462013243708</v>
+        <v>9.177563517260554</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -24334,19 +24334,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2178447075857273</v>
+        <v>0.2166239379954819</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3383600481479698</v>
+        <v>0.3363013045712627</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1982842313736314</v>
+        <v>0.1974396559089565</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4667383716663194</v>
+        <v>0.4654287679070578</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>15.71566360349163</v>
+        <v>15.62096501669578</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -24364,19 +24364,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.3820725722013441</v>
+        <v>0.3798850169520357</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3644545141489396</v>
+        <v>0.3638563350517479</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.20978492886803</v>
+        <v>0.2095007552785002</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.6181201923585283</v>
+        <v>0.6163481296735115</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>20.29280732743086</v>
+        <v>20.19819827013265</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -24396,19 +24396,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.02865139511644</v>
+        <v>1.094612757866517</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7012240875264496</v>
+        <v>0.725590202714397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3914430557204508</v>
+        <v>0.4008199325241937</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.014224528946347</v>
+        <v>1.046237429012419</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>33.32104298632869</v>
+        <v>34.66531077616152</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -24426,19 +24426,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.294605706159466</v>
+        <v>0.2948392007496541</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3108052625411589</v>
+        <v>0.306470012220622</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2374457332582266</v>
+        <v>0.2370671459499867</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.5427759262895381</v>
+        <v>0.5429909766742483</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>14.31269919658139</v>
+        <v>14.14436250064633</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -25645,19 +25645,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.323024200883898</v>
+        <v>0.3229829544697464</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.380025165800994</v>
+        <v>0.3799404427693882</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.178819702351613</v>
+        <v>0.1787902240529597</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.5683521803282697</v>
+        <v>0.5683158932053074</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>17.5834951520914</v>
+        <v>17.5802808523768</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -25675,19 +25675,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.273664787153849</v>
+        <v>0.2754410259172058</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3356343701508342</v>
+        <v>0.336994700858512</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1598844966335733</v>
+        <v>0.160385134798517</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.5231297995276593</v>
+        <v>0.5248247573402057</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>14.57001350151931</v>
+        <v>14.63438052853534</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -25707,19 +25707,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.069903926370631</v>
+        <v>1.07043802934871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6760074968107715</v>
+        <v>0.6989361999503891</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3327777640058591</v>
+        <v>0.3385670981833389</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.03436160329482</v>
+        <v>1.034619751091535</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>33.72992603731736</v>
+        <v>34.44734919930877</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -25737,19 +25737,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.223590704004196</v>
+        <v>0.2233687441036815</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2712974380024738</v>
+        <v>0.2711368481364618</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.184995168176729</v>
+        <v>0.1848835298444521</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.4728537871310707</v>
+        <v>0.4726190263877254</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>11.96296777260359</v>
+        <v>11.95754661473262</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -25769,16 +25769,16 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2892778259499974</v>
+        <v>0.2892778259499972</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.418116932163441</v>
+        <v>0.4181169321634409</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.216620730326109</v>
+        <v>0.2166207303261089</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5378455409780744</v>
+        <v>0.5378455409780741</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>17.76814137382888</v>
@@ -25808,10 +25808,10 @@
         <v>0.1902032783964064</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.5069242381984643</v>
+        <v>0.5069242381984642</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>14.76531009357815</v>
+        <v>14.76531009357816</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -26958,19 +26958,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04354856081773807</v>
+        <v>0.04373515029983367</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1656050505271439</v>
+        <v>0.166276633401566</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.256266786274335</v>
+        <v>0.2585712114312805</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2086829193243618</v>
+        <v>0.2091295060478881</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>26.11648769545469</v>
+        <v>26.2505086583095</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -26988,19 +26988,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05057183046788434</v>
+        <v>0.05053596045570524</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1869268987096487</v>
+        <v>0.1870126147428601</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3087887746846014</v>
+        <v>0.3089895789976239</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2248818144445752</v>
+        <v>0.2248020472676022</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>29.87433792113987</v>
+        <v>29.88651644622367</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -27016,23 +27016,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02986659933330821</v>
+        <v>0.02578201283033617</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1383002414115337</v>
+        <v>0.1240035519232762</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3114285547109222</v>
+        <v>0.2854727729008724</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1728195571493811</v>
+        <v>0.160567782666188</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>22.17045662108441</v>
+        <v>20.31243934579065</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -27050,19 +27050,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.0292505062815028</v>
+        <v>0.02719042653385222</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.147833072908587</v>
+        <v>0.1428564161245625</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2790334007145035</v>
+        <v>0.2689561573830314</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1710277938859728</v>
+        <v>0.1648951986379598</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>23.19581944222339</v>
+        <v>22.46643495077901</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -28272,19 +28272,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02620611806986324</v>
+        <v>0.025986026743167</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1257064313876841</v>
+        <v>0.1252239875821513</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4425545190963019</v>
+        <v>0.4415462412922844</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1618830382401543</v>
+        <v>0.1612018199127014</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>24.22618848539604</v>
+        <v>24.16411532989554</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -28302,19 +28302,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02588372803866684</v>
+        <v>0.02600327716536734</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1246680613347948</v>
+        <v>0.1248932643882035</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.4040835755041458</v>
+        <v>0.4049490122055844</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.160884206927426</v>
+        <v>0.1612553167041861</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>23.96467225322607</v>
+        <v>23.99952007011674</v>
       </c>
     </row>
     <row r="14">
@@ -28330,53 +28330,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.2402036827354545</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.4020435128191102</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.8700720063812398</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.4901057872903099</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>77.65183088874844</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearRegression()}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.4923083849124509</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.5475237832175526</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>1.793016172308422</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.7016469090022779</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>89.22759101702117</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearRegression()}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>1.857114150364789</v>
+        <v>1.854558546941448</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>1.146533574778197</v>
+        <v>1.14565198728784</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>2.91654336269911</v>
+        <v>2.916437705569617</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.362759755189736</v>
+        <v>1.36182177502838</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>152.0802422955991</v>
+        <v>152.0007603982475</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -29584,19 +29584,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04956926566988312</v>
+        <v>0.04955249469614489</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1737371614803847</v>
+        <v>0.1736527975386822</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3953286310932446</v>
+        <v>0.3950277668616277</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2226415632128986</v>
+        <v>0.2226038964082725</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>29.64576184762799</v>
+        <v>29.62912418346871</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -29614,19 +29614,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05060194090386168</v>
+        <v>0.05067907765906792</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.177263715947251</v>
+        <v>0.1775108116007294</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3832089655842303</v>
+        <v>0.3830817479677024</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.224948751727725</v>
+        <v>0.2251201405007289</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>30.8220893837709</v>
+        <v>30.87144182004031</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -29646,19 +29646,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07893430067542612</v>
+        <v>0.07895231244437664</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2340593874871146</v>
+        <v>0.2300111724702797</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6824792798509753</v>
+        <v>0.683951005958951</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.280952488288369</v>
+        <v>0.2809845412907561</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>37.25686372995756</v>
+        <v>36.79315848537819</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -29676,19 +29676,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1037326012513793</v>
+        <v>0.1114532489755844</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2551880494799055</v>
+        <v>0.2725582535897086</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.8186855867504674</v>
+        <v>0.8238497799318164</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3220754589399498</v>
+        <v>0.3338461456653115</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>38.83267316344786</v>
+        <v>42.94116216846409</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option3/window1/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window1/BA47 Overall Model Peformance Results.xlsx
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8215910196304321</v>
+        <v>2.220883131027222</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6859334111213684</v>
+        <v>1.337631821632385</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.44170081615448</v>
+        <v>0.842072069644928</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9064165817274263</v>
+        <v>1.490262772475788</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.02508664131165</v>
+        <v>44.64717507362366</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>2.136823654174805</v>
+        <v>0.5970950722694397</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.310218453407288</v>
+        <v>0.473712831735611</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.7172392010688782</v>
+        <v>0.4221734404563904</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.461787828029364</v>
+        <v>0.7727192713200828</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>42.30699837207794</v>
+        <v>21.03026956319809</v>
       </c>
     </row>
   </sheetData>
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.701950550079346</v>
+        <v>1.297321081161499</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.568676948547363</v>
+        <v>0.9625465273857117</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7303400635719299</v>
+        <v>0.5950191020965576</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.643761098845981</v>
+        <v>1.139000035628401</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>47.32924401760101</v>
+        <v>34.24313068389893</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.357495307922363</v>
+        <v>1.120011210441589</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.056250333786011</v>
+        <v>0.8657018542289734</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5321868062019348</v>
+        <v>0.549839973449707</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.165116006208121</v>
+        <v>1.058305820848392</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>35.13551652431488</v>
+        <v>31.71087205410004</v>
       </c>
     </row>
   </sheetData>
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4033529758453369</v>
+        <v>0.4276926219463348</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4860800802707672</v>
+        <v>0.3916913866996765</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2254060208797455</v>
+        <v>0.2972078025341034</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6351007603879379</v>
+        <v>0.653982126626053</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.57916212081909</v>
+        <v>17.07039624452591</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.6630240678787231</v>
+        <v>0.4134532809257507</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.7169687151908875</v>
+        <v>0.537819504737854</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3112651705741882</v>
+        <v>0.2932819426059723</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.8142628985031328</v>
+        <v>0.6430033288605517</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>24.4290828704834</v>
+        <v>23.83929789066315</v>
       </c>
     </row>
   </sheetData>
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2598808109760284</v>
+        <v>0.04429913684725761</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4395176768302917</v>
+        <v>0.1549777984619141</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.085283517837524</v>
+        <v>0.5917543172836304</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5097850635081695</v>
+        <v>0.2104736013072842</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>113.9092445373535</v>
+        <v>28.26202511787415</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2591495215892792</v>
+        <v>1.404830098152161</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4332848787307739</v>
+        <v>0.9499660134315491</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.260144710540771</v>
+        <v>2.579389572143555</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.5090673055591757</v>
+        <v>1.18525528817726</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>107.5007796287537</v>
+        <v>121.3454604148865</v>
       </c>
     </row>
   </sheetData>
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5163.9365234375</v>
+        <v>0.05668281391263008</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>62.43392181396484</v>
+        <v>0.1829271614551544</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>317.8827514648438</v>
+        <v>0.7050811648368835</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>71.8605352292724</v>
+        <v>0.2380815278694046</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>199.502968788147</v>
+        <v>32.73052275180817</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.3563019037246704</v>
+        <v>0.06177755445241928</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4228445887565613</v>
+        <v>0.1905956864356995</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>2.059015035629272</v>
+        <v>0.6979180574417114</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.5969102978879409</v>
+        <v>0.2485509091764085</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>83.67544412612915</v>
+        <v>34.21683311462402</v>
       </c>
     </row>
   </sheetData>
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4291451871395111</v>
+        <v>0.08599018305540085</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4946083724498749</v>
+        <v>0.2406404763460159</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.089239358901978</v>
+        <v>0.8416498303413391</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6550917394834949</v>
+        <v>0.2932408277430018</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>71.70053124427795</v>
+        <v>43.06127429008484</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1286520063877106</v>
+        <v>0.04835681989789009</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2911022007465363</v>
+        <v>0.1696488857269287</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>2.190062046051025</v>
+        <v>0.704586923122406</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3586809255978223</v>
+        <v>0.2199018415063641</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>60.08318662643433</v>
+        <v>31.80100917816162</v>
       </c>
     </row>
   </sheetData>
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.043223023414612</v>
+        <v>0.3738361001014709</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6838412284851074</v>
+        <v>0.3487133681774139</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7856357097625732</v>
+        <v>0.2754733860492706</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.021382897553416</v>
+        <v>0.6114213768764313</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.88420033454895</v>
+        <v>15.597203373909</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.18947958946228</v>
+        <v>0.4421750903129578</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.6641600728034973</v>
+        <v>0.5860190391540527</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.8352013230323792</v>
+        <v>0.2788541615009308</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.090632655600537</v>
+        <v>0.6649624728606554</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>28.22952568531036</v>
+        <v>25.79433917999268</v>
       </c>
     </row>
   </sheetData>
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.449377059936523</v>
+        <v>0.5748052000999451</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.569016098976135</v>
+        <v>0.4749905467033386</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.440463781356812</v>
+        <v>0.3641601204872131</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.109354654849801</v>
+        <v>0.7581590862740781</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>49.20743107795715</v>
+        <v>20.01685798168182</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.001257419586182</v>
+        <v>0.4429182708263397</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.522476851940155</v>
+        <v>0.4597278535366058</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.7671225070953369</v>
+        <v>0.3289890587329865</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.000628512279248</v>
+        <v>0.6655210521285857</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>24.23553466796875</v>
+        <v>20.50897181034088</v>
       </c>
     </row>
   </sheetData>
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8193542957305908</v>
+        <v>8.301933288574219</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.470768928527832</v>
+        <v>2.365050315856934</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4088647961616516</v>
+        <v>1.175103664398193</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9051819130597953</v>
+        <v>2.88130756577187</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>22.46654778718948</v>
+        <v>66.01376533508301</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.161606431007385</v>
+        <v>10.0229959487915</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.6340157985687256</v>
+        <v>2.339881658554077</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5081925988197327</v>
+        <v>0.9942595362663269</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.077778470283845</v>
+        <v>3.165911551005729</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>27.34422087669373</v>
+        <v>94.36723589897156</v>
       </c>
     </row>
   </sheetData>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04184156283736229</v>
+        <v>0.0665634423494339</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1683047264814377</v>
+        <v>0.1911739259958267</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3361413478851318</v>
+        <v>0.7912114858627319</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2045521029893418</v>
+        <v>0.2579989192795852</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.89014971256256</v>
+        <v>32.03375935554504</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1952819973230362</v>
+        <v>0.05821214243769646</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3413596749305725</v>
+        <v>0.1855076551437378</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.105191946029663</v>
+        <v>0.7045709490776062</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4419072270545439</v>
+        <v>0.2412719263356109</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>43.22284758090973</v>
+        <v>33.07595551013947</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06672421842813492</v>
+        <v>0.06503219902515411</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2000794112682343</v>
+        <v>0.2006083875894547</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7251440286636353</v>
+        <v>0.7783194780349731</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2583103142116763</v>
+        <v>0.2550141153449239</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.97980034351349</v>
+        <v>36.29659414291382</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5393130779266357</v>
+        <v>0.3553741276264191</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5834254622459412</v>
+        <v>0.36015385389328</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2639360427856445</v>
+        <v>0.2697233855724335</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7343793828305882</v>
+        <v>0.5961326426445872</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.46891152858734</v>
+        <v>16.16405248641968</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3604893684387207</v>
+        <v>0.5970149040222168</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.355632871389389</v>
+        <v>0.4939830601215363</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.23415307700634</v>
+        <v>0.3843573927879333</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6004076685375701</v>
+        <v>0.7726673954698857</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.78036493062973</v>
+        <v>20.72824239730835</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6559852361679077</v>
+        <v>0.4210777282714844</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5580286979675293</v>
+        <v>0.4424760043621063</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3837442994117737</v>
+        <v>0.3570566773414612</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8099291550301839</v>
+        <v>0.6489050225352585</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>22.21953421831131</v>
+        <v>20.64654231071472</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27660,19 +27660,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04885196313261986</v>
+        <v>0.05583429336547852</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.172400489449501</v>
+        <v>0.1857496798038483</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.347673624753952</v>
+        <v>0.6247120499610901</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2210248020757396</v>
+        <v>0.236292812767292</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.79560482501984</v>
+        <v>32.57960379123688</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27690,19 +27690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04421151056885719</v>
+        <v>0.07401567697525024</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1764901429414749</v>
+        <v>0.212024062871933</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3526983559131622</v>
+        <v>0.8271394968032837</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2102653337306395</v>
+        <v>0.2720582235023419</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>27.55297124385834</v>
+        <v>34.59141850471497</v>
       </c>
     </row>
   </sheetData>
@@ -28974,19 +28974,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06475028395652771</v>
+        <v>0.08389274775981903</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1906571686267853</v>
+        <v>0.2404359430074692</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7375611662864685</v>
+        <v>0.936872661113739</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2544607709579764</v>
+        <v>0.2896424481318631</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>32.21515119075775</v>
+        <v>40.89328646659851</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29004,19 +29004,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07457048445940018</v>
+        <v>0.0703398734331131</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2045505493879318</v>
+        <v>0.2149567902088165</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.8309363722801208</v>
+        <v>0.907184898853302</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2730759682934406</v>
+        <v>0.2652166537627551</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>33.65775048732758</v>
+        <v>37.44591474533081</v>
       </c>
     </row>
   </sheetData>
@@ -30286,19 +30286,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08061899989843369</v>
+        <v>0.05691121891140938</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1983529776334763</v>
+        <v>0.1797182708978653</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7430695295333862</v>
+        <v>0.7596480846405029</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2839348515037097</v>
+        <v>0.238560723740119</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.75843453407288</v>
+        <v>31.90202116966248</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30316,19 +30316,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04656050726771355</v>
+        <v>0.07579732686281204</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1739448755979538</v>
+        <v>0.2165730446577072</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.537301242351532</v>
+        <v>0.8791647553443909</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2157788387857195</v>
+        <v>0.2753131432801784</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>29.10900115966797</v>
+        <v>36.27703189849854</v>
       </c>
     </row>
   </sheetData>

--- a/data/performance_sheets_option3/window1/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window1/BA47 Overall Model Peformance Results.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="805" firstSheet="16" activeTab="23" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Option 1 - LR1 - DN1 (80-20)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Option 1 - LR1 - DN1 (60-40)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Option 1 - LR1 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Option 1 - LR1 - DN2 (80-20)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Option 1 - LR1 - DN2 (60-40)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Option 1 - LR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Option 1 - LR2 - DN1 (80-20)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Option 1 - LR2 - DN1 (60-40)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Option 1 - LR2 - DN1 (70-30)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Option 1 - LR2 - DN2 (60-40)" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Option 1 - LR2 - DN2 (70-30)" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Option 1 - LR2 - DN2 (80-20)" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Option 1 - NLR1 - DN1 (80-20)" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Option 1 - NLR1 - DN1 (70-30)" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Option 1 - NLR1 - DN1 (60-40)" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Option 1 - NLR1 - DN2 (80-20)" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Option 1 - NLR1 - DN2 (70-30)" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Option 1 - NLR1 - DN2 (60-40)" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Option 1 - NLR2 - DN1 (80-20)" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Option 1 - NLR2 - DN1 (70-30)" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Option 1 - NLR2 - DN1 (60-40)" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Option 1 - NLR2 - DN2 (80-20)" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Option 1 - NLR2 - DN2 (70-30)" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Option 1 - NLR2 - DN2 (60-40)" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (80-20)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (60-40)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (80-20)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (60-40)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (80-20)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (60-40)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (70-30)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (60-40)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (70-30)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (80-20)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (80-20)" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (70-30)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (60-40)" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (80-20)" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (70-30)" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (60-40)" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (80-20)" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (70-30)" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (60-40)" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (80-20)" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (70-30)" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (60-40)" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -894,19 +894,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -1018,19 +1018,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05271346107426658</v>
+        <v>0.0585570828890949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1788375707010083</v>
+        <v>0.1900680500418124</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.335650476974534</v>
+        <v>0.6028759923216462</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2295941224732606</v>
+        <v>0.2419857080265174</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>27.93833242701672</v>
+        <v>33.46158762414411</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -1048,19 +1048,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.05303317521058963</v>
+        <v>0.0584803335154593</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1790556379040789</v>
+        <v>0.1898826168160094</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.33625437103495</v>
+        <v>0.6024001453881525</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2302893293459114</v>
+        <v>0.2418270735783305</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>27.96232385415919</v>
+        <v>33.43233026935793</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -1596,19 +1596,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05143339393455053</v>
+        <v>0.0584631562255932</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1783607595846264</v>
+        <v>0.1899874978660923</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3397093524006813</v>
+        <v>0.6045655263539704</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2267893161825542</v>
+        <v>0.2417915553231609</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>27.83426830938579</v>
+        <v>33.43764979906006</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -1622,23 +1622,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.04802108267756257</v>
+        <v>0.0460953584721747</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1740254908250595</v>
+        <v>0.1582381125772183</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3432874963377202</v>
+        <v>0.49165621781234</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2191371321286344</v>
+        <v>0.2146982963886177</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>27.07107992967986</v>
+        <v>28.78730325922711</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -1736,23 +1736,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04414515569806099</v>
+        <v>0.05522414</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1631710678339005</v>
+        <v>0.17417812</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3691602647304535</v>
+        <v>0.6804791</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2101074860590669</v>
+        <v>0.2349981685957665</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>25.26687681674957</v>
+        <v>30.30545711517334</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -1766,23 +1766,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04455126821994781</v>
+        <v>0.08759396</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1658853143453598</v>
+        <v>0.22611742</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3721440434455872</v>
+        <v>0.916477</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2110717134529111</v>
+        <v>0.2959627641812254</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>25.68825483322144</v>
+        <v>35.7903391122818</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -1798,23 +1798,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03657985478639603</v>
+        <v>0.028675968</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1667054891586304</v>
+        <v>0.1398276</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2399125993251801</v>
+        <v>0.18965854</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.191258607091017</v>
+        <v>0.1693397998919312</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.14322090148926</v>
+        <v>19.51836198568344</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1828,23 +1828,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02955889329314232</v>
+        <v>0.02984834</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1500756442546844</v>
+        <v>0.14134434</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2071069926023483</v>
+        <v>0.18919477</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1719269998957183</v>
+        <v>0.17276672393361</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>20.06841003894806</v>
+        <v>19.74601447582245</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -2209,19 +2209,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -2239,19 +2239,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
     </row>
     <row r="10">
@@ -2333,19 +2333,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1058690561766854</v>
+        <v>1.044223050281639</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2748929194107205</v>
+        <v>0.8580535282626952</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1439952338375468</v>
+        <v>0.433702770651771</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3253752544012612</v>
+        <v>1.02187232582238</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.83220631439428</v>
+        <v>41.05954120793704</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3751459369575681</v>
+        <v>0.9277430711578906</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5295344178309039</v>
+        <v>0.7793995846463037</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2408797946610647</v>
+        <v>0.3921618893423055</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6124915811319925</v>
+        <v>0.9631942022032164</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>22.65398452481627</v>
+        <v>38.34864410897828</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -2907,23 +2907,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.421219181732121</v>
+        <v>1.651583065664534</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.274985107032606</v>
+        <v>1.118868396024572</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9405355391042554</v>
+        <v>0.4536316914085136</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.534012466767305</v>
+        <v>1.285139317609003</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>138.5690556307291</v>
+        <v>57.8506279709303</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -2937,23 +2937,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.790932168775858</v>
+        <v>0.704263102960025</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>1.108130311717122</v>
+        <v>0.7640532706189884</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4670903536819721</v>
+        <v>0.4268215252169986</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.338257138511078</v>
+        <v>0.8392038506584828</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>56.09105573780073</v>
+        <v>35.65269725315636</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -3051,23 +3051,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3504697382450104</v>
+        <v>1.1073185</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3543234169483185</v>
+        <v>0.84081143</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2684845626354218</v>
+        <v>0.60272604</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5920048464708801</v>
+        <v>1.052292031969244</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>15.92961698770523</v>
+        <v>31.9005936384201</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -3081,23 +3081,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3674552440643311</v>
+        <v>0.75115937</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3952349424362183</v>
+        <v>0.58159286</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2809343636035919</v>
+        <v>0.46543708</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.6061808674515644</v>
+        <v>0.8666945078547147</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>17.4425795674324</v>
+        <v>24.32342618703842</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3113,23 +3113,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1370533555746078</v>
+        <v>0.25752375</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.268069714307785</v>
+        <v>0.42713606</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1181556805968285</v>
+        <v>0.17142218</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3702071792585982</v>
+        <v>0.5074679746529682</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.40328368544579</v>
+        <v>18.00024062395096</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3143,23 +3143,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1545468717813492</v>
+        <v>0.5003938999999999</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2769894301891327</v>
+        <v>0.6550161</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1221452578902245</v>
+        <v>0.25635043</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3931244990856576</v>
+        <v>0.7073852748660524</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>10.71680560708046</v>
+        <v>28.09541523456573</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.220883131027222</v>
+        <v>2.2242367</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.337631821632385</v>
+        <v>1.3390186</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.842072069644928</v>
+        <v>0.8425769</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.490262772475788</v>
+        <v>1.491387517300874</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>44.64717507362366</v>
+        <v>44.68121230602264</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.5970950722694397</v>
+        <v>0.59631884</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.473712831735611</v>
+        <v>0.47335932</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4221734404563904</v>
+        <v>0.4219001</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.7727192713200828</v>
+        <v>0.7722168354682056</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>21.03026956319809</v>
+        <v>21.02011144161224</v>
       </c>
     </row>
   </sheetData>
@@ -3521,19 +3521,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -3551,19 +3551,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -3645,19 +3645,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.282627024930985</v>
+        <v>0.7379958006948396</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.414520567851806</v>
+        <v>0.6244773463128058</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1597357950346202</v>
+        <v>0.3129401871427869</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5316267722105283</v>
+        <v>0.8590668196914834</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.36442226505309</v>
+        <v>28.61485559341887</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -3675,19 +3675,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.224253611682609</v>
+        <v>0.8575416496851682</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3966930599017995</v>
+        <v>0.6752575461430294</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1864056431649947</v>
+        <v>0.3026098539397079</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4735542330954386</v>
+        <v>0.926035447315689</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>16.46934969162959</v>
+        <v>32.3907651091062</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -4219,23 +4219,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.080869872585378</v>
+        <v>3.114199437106925</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.259819029781681</v>
+        <v>1.666707030056882</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4674999611731502</v>
+        <v>0.6444638646287896</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.442522052720643</v>
+        <v>1.764709448353163</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>68.58081933214362</v>
+        <v>96.5692205317729</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -4249,23 +4249,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.3015712455541357</v>
+        <v>4.499393193608791</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.4003174722600081</v>
+        <v>2.02836678187973</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2233967143572415</v>
+        <v>0.8109359087666207</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.5491550287069542</v>
+        <v>2.121177313099683</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>17.17193355137638</v>
+        <v>129.8833545094366</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -4363,23 +4363,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2637575268745422</v>
+        <v>0.32125917</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3148931562900543</v>
+        <v>0.34882897</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.205607995390892</v>
+        <v>0.27988023</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.51357329260247</v>
+        <v>0.5667972924870452</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.56436759233475</v>
+        <v>16.30689948797226</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4393,23 +4393,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2549425959587097</v>
+        <v>0.5259748</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.315311461687088</v>
+        <v>0.6403382</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2027991712093353</v>
+        <v>0.34854275</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5049184052485211</v>
+        <v>0.7252412082358831</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>13.67359459400177</v>
+        <v>28.87955009937286</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4425,23 +4425,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06982041150331497</v>
+        <v>0.5471189</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2030506879091263</v>
+        <v>0.5525286</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07558270543813705</v>
+        <v>0.1957649</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2642355227885058</v>
+        <v>0.7396748624946105</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.395843416452408</v>
+        <v>22.43251800537109</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4459,19 +4459,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.07186783105134964</v>
+        <v>0.5827673</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2385329604148865</v>
+        <v>0.6553225</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.08851361274719238</v>
+        <v>0.24150342</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2680817618775094</v>
+        <v>0.7633919751728671</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>8.624438941478729</v>
+        <v>24.83403384685516</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.297321081161499</v>
+        <v>1.2946442</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9625465273857117</v>
+        <v>0.96115035</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5950191020965576</v>
+        <v>0.5944415</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.139000035628401</v>
+        <v>1.137824343457564</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>34.24313068389893</v>
+        <v>34.20575261116028</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.120011210441589</v>
+        <v>1.1199186</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.8657018542289734</v>
+        <v>0.86565</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.549839973449707</v>
+        <v>0.549816</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.058305820848392</v>
+        <v>1.058262058671484</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>31.71087205410004</v>
+        <v>31.70945346355438</v>
       </c>
     </row>
   </sheetData>
@@ -4833,19 +4833,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -4863,19 +4863,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -4953,23 +4953,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2437363377085763</v>
+        <v>1.202568242538461</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.40428802235733</v>
+        <v>0.9440040165179884</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.164722832000289</v>
+        <v>0.3546675767116909</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4936966049190295</v>
+        <v>1.096616725450812</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.04217901208391</v>
+        <v>44.34369300709669</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.190190918832977</v>
+        <v>1.04626041585293</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.359418879473248</v>
+        <v>0.8082053028935257</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1397263019448657</v>
+        <v>0.3192936072036311</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4361088382880781</v>
+        <v>1.022868718777209</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>14.74377094283517</v>
+        <v>40.87444745858649</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -5531,23 +5531,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.559614899154422</v>
+        <v>4.992931141026817</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.154852612074316</v>
+        <v>2.019964699701492</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4231172704199013</v>
+        <v>0.7709687813470822</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.248845426445732</v>
+        <v>2.234486773517986</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>56.49629993625756</v>
+        <v>135.5355777010928</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -5565,19 +5565,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.890515243765543</v>
+        <v>5.332115874901598</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>1.246554238851965</v>
+        <v>2.157805160667145</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4634623507195713</v>
+        <v>0.84380790322433</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.374960088062756</v>
+        <v>2.309137474231796</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>65.06553922130338</v>
+        <v>152.8960922306829</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -5675,23 +5675,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.166829377412796</v>
+        <v>0.79346764</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2776032090187073</v>
+        <v>0.7059941</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1296393424272537</v>
+        <v>0.4347525</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.408447521002143</v>
+        <v>0.8907680062040677</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>11.03972122073174</v>
+        <v>26.8193781375885</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -5705,23 +5705,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1660021990537643</v>
+        <v>0.96336466</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.289495587348938</v>
+        <v>0.8037718</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1356820613145828</v>
+        <v>0.4884964</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4074336744229229</v>
+        <v>0.98151141651022</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>11.46239787340164</v>
+        <v>29.44835126399994</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5737,23 +5737,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06096230819821358</v>
+        <v>0.2036995</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1901145279407501</v>
+        <v>0.38732734</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06601853668689728</v>
+        <v>0.13565585</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2469054640914485</v>
+        <v>0.4513308092393733</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.738068163394928</v>
+        <v>14.86150920391083</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5767,23 +5767,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05997302010655403</v>
+        <v>0.24000657</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2052767723798752</v>
+        <v>0.42929667</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07219649851322174</v>
+        <v>0.15028721</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2448938956090046</v>
+        <v>0.4899046499551402</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.258065789937973</v>
+        <v>16.60603582859039</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4276926219463348</v>
+        <v>0.42768598</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3916913866996765</v>
+        <v>0.39168388</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2972078025341034</v>
+        <v>0.29720446</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.653982126626053</v>
+        <v>0.6539770454904685</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.07039624452591</v>
+        <v>17.07014143466949</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4134532809257507</v>
+        <v>0.41374305</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.537819504737854</v>
+        <v>0.53798217</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2932819426059723</v>
+        <v>0.29339588</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6430033288605517</v>
+        <v>0.6432286132521829</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>23.83929789066315</v>
+        <v>23.84593635797501</v>
       </c>
     </row>
   </sheetData>
@@ -6139,23 +6139,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08334434966724366</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2241160520577013</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.983259579222235</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2886942148142974</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>41.56803741635998</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -6169,23 +6169,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.08331623840142535</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2239670884467085</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.983256339906295</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2886455237855342</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>41.52630468103491</v>
+        <v>31.77616228482158</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -6263,23 +6263,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4092166294135924</v>
+        <v>0.0407087370326575</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5851805854804721</v>
+        <v>0.1633729347693035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9669576870019814</v>
+        <v>0.4472165838887506</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6397004216143619</v>
+        <v>0.2017640627878452</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>185.0265945892358</v>
+        <v>30.41451268334514</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -6293,23 +6293,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.4241131909384427</v>
+        <v>0.4759459015773133</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5965876621133337</v>
+        <v>0.6467245527360359</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.033344778411077</v>
+        <v>1.044887423851429</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.651239733844951</v>
+        <v>0.6898883254392071</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>187.0492494655881</v>
+        <v>172.8308686096656</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -6841,53 +6841,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0418488744745106</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1539975971378116</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.433029256167286</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2045699745185266</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>28.52261919579385</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.07589086679897702</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.2149634039079189</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>1.964357206175213</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.2754829700707052</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>40.5433827900623</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.07589086679897702</v>
+        <v>0.0489779748020047</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2149634039079189</v>
+        <v>0.1691078319353437</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.964357206175213</v>
+        <v>0.548111971571375</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2754829700707052</v>
+        <v>0.2213096807688374</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>40.5433827900623</v>
+        <v>30.51087494373645</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -6989,19 +6989,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1107297241687775</v>
+        <v>0.048068576</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2758516669273376</v>
+        <v>0.16416943</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.531638860702515</v>
+        <v>0.6466952</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3327607611614949</v>
+        <v>0.2192454687354942</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>61.63686513900757</v>
+        <v>29.29559350013733</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7019,19 +7019,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1065908372402191</v>
+        <v>0.07631785000000001</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2494211494922638</v>
+        <v>0.22383653</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>2.140899658203125</v>
+        <v>0.83893347</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3264825221052715</v>
+        <v>0.2762568492817054</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>44.66921091079712</v>
+        <v>36.00911200046539</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -7047,23 +7047,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07966317981481552</v>
+        <v>0.11062358</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2201491296291351</v>
+        <v>0.22157927</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.022618770599365</v>
+        <v>0.27344078</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2822466648426789</v>
+        <v>0.3326012375166299</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>38.38190138339996</v>
+        <v>37.81992197036743</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7077,23 +7077,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.09698393940925598</v>
+        <v>0.052013166</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2292496114969254</v>
+        <v>0.17936563</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>1.255409240722656</v>
+        <v>0.2347301</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3114224452560476</v>
+        <v>0.2280639521029099</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>37.89961636066437</v>
+        <v>27.50164568424225</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04429913684725761</v>
+        <v>0.04429736</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1549777984619141</v>
+        <v>0.15499638</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5917543172836304</v>
+        <v>0.5916972</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2104736013072842</v>
+        <v>0.2104693799197053</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>28.26202511787415</v>
+        <v>28.26575338840485</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.404830098152161</v>
+        <v>1.3855106</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.9499660134315491</v>
+        <v>0.94269305</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>2.579389572143555</v>
+        <v>2.561919</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.18525528817726</v>
+        <v>1.17707712740092</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>121.3454604148865</v>
+        <v>120.3763008117676</v>
       </c>
     </row>
   </sheetData>
@@ -7453,19 +7453,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1113066078928587</v>
+        <v>0.028403357650207</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2159256276245285</v>
+        <v>0.1186844025245834</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.546747322740567</v>
+        <v>0.3337161786266029</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3336264496302094</v>
+        <v>0.168532957163301</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>37.87053020733035</v>
+        <v>22.55269202154286</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -7479,23 +7479,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1119633256082257</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2230506558821913</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>2.55925377300787</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3346092132745685</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>38.75738131110202</v>
+        <v>33.70231028308675</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -7573,23 +7573,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>57.04727352388323</v>
+        <v>0.0647634793952568</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.528044970548156</v>
+        <v>0.1974028600649401</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22.67482735245115</v>
+        <v>0.4434488913269531</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.552964552007591</v>
+        <v>0.2544866978748729</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>171.4634630019324</v>
+        <v>37.09453937268317</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -7603,23 +7603,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.321663618152657</v>
+        <v>0.0480514725847966</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.503196279795189</v>
+        <v>0.1684234407426487</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.177408724785653</v>
+        <v>0.4037087882009813</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.567153963357973</v>
+        <v>0.2192064610927256</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>126.3753488435417</v>
+        <v>32.51034835281642</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -8155,19 +8155,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07547616361874404</v>
+        <v>0.0354637095162068</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1915471461987928</v>
+        <v>0.1443702418288884</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.2192071335707</v>
+        <v>0.4015115697079378</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2747292551199162</v>
+        <v>0.1883181072446481</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>36.39579914374475</v>
+        <v>27.75085025791992</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -8181,23 +8181,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.07444098613751673</v>
+        <v>0.0326926387019605</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1913608481270397</v>
+        <v>0.1368916598508438</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>2.208268829193527</v>
+        <v>0.275092538295549</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2728387548306082</v>
+        <v>0.1808110580190285</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>36.49516693386032</v>
+        <v>24.95514710852319</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -8295,23 +8295,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06764845550060272</v>
+        <v>0.04919554</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.178208976984024</v>
+        <v>0.15523356</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.116015434265137</v>
+        <v>0.6254678</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2600931669625381</v>
+        <v>0.2218006744946155</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>34.73731577396393</v>
+        <v>28.93057763576508</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8325,23 +8325,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.07912327349185944</v>
+        <v>0.044364404</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2150844782590866</v>
+        <v>0.14865379</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.894244909286499</v>
+        <v>0.6728456</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2812885946707748</v>
+        <v>0.2106285923925967</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>53.75792980194092</v>
+        <v>27.95463800430298</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8357,23 +8357,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1114925742149353</v>
+        <v>0.039900504</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2526280879974365</v>
+        <v>0.15439585</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.217472910881042</v>
+        <v>0.22206302</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3339050377202107</v>
+        <v>0.1997511052601186</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>45.27716934680939</v>
+        <v>23.33689481019974</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8387,23 +8387,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.07268031686544418</v>
+        <v>0.03872888</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1843918710947037</v>
+        <v>0.1380667</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>1.015890598297119</v>
+        <v>0.18742116</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2695928724307158</v>
+        <v>0.1967965488196407</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>34.90726053714752</v>
+        <v>20.49291580915451</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05668281391263008</v>
+        <v>0.056677442</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1829271614551544</v>
+        <v>0.18292126</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7050811648368835</v>
+        <v>0.7049474</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2380815278694046</v>
+        <v>0.2380702460283932</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>32.73052275180817</v>
+        <v>32.73084759712219</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.06177755445241928</v>
+        <v>0.061778095</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1905956864356995</v>
+        <v>0.19059774</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6979180574417114</v>
+        <v>0.69792175</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2485509091764085</v>
+        <v>0.2485519958067377</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>34.21683311462402</v>
+        <v>34.21720266342163</v>
       </c>
     </row>
   </sheetData>
@@ -8759,23 +8759,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'random', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 70, 'max_features': 'log2', 'max_depth': 16, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0744188291555954</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.19449979685454</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.075348777058906</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2727981472730256</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>37.20979386329391</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -8789,23 +8789,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.09018555127184806</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1853385780457864</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>2.554202658213083</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3003090928890567</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>33.59122435340475</v>
+        <v>36.07352887796457</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -8883,23 +8883,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3947416511073883</v>
+        <v>0.0663693106393926</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5901225037744507</v>
+        <v>0.2053497658149143</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.133653262004279</v>
+        <v>0.5446740108848429</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6282846895376237</v>
+        <v>0.2576224187437744</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>164.577163830831</v>
+        <v>39.47074096408664</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -8913,23 +8913,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.05535545891899473</v>
+        <v>0.0681197456025807</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1587086438421614</v>
+        <v>0.1990336182401551</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>2.002738903462764</v>
+        <v>0.5099928965151527</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2352774084330978</v>
+        <v>0.2609975969287471</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>32.86857705274599</v>
+        <v>39.75335709651719</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -9461,23 +9461,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06974438937763086</v>
+        <v>0.0575654605993602</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1651914926755352</v>
+        <v>0.1901200567208635</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.279905791989298</v>
+        <v>0.5835711215004855</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2640916306466959</v>
+        <v>0.2399280321249693</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>32.91943899776534</v>
+        <v>36.35951735940602</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -9491,23 +9491,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.06134704416653895</v>
+        <v>0.0510206699021839</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1653764913566044</v>
+        <v>0.176061616491218</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>2.239845319984642</v>
+        <v>0.5750894772338587</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2476833546416451</v>
+        <v>0.2258775551093644</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>32.22622782468478</v>
+        <v>33.78357440857298</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -9605,23 +9605,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08259277045726776</v>
+        <v>0.077909596</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1861510276794434</v>
+        <v>0.20790905</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.492374897003174</v>
+        <v>0.856784</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2873895795906103</v>
+        <v>0.2791229053022384</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>34.68982875347137</v>
+        <v>36.74604892730713</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9635,23 +9635,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0869663879275322</v>
+        <v>0.050067425</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1973717212677002</v>
+        <v>0.1580435</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>2.408813953399658</v>
+        <v>0.7509172</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2949006407716541</v>
+        <v>0.2237575133356865</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>36.45749390125275</v>
+        <v>29.61484789848328</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9667,53 +9667,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06093968</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.18372898</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.36108103</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2468596378206464</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>30.07640242576599</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.07559783011674881</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.176787331700325</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>1.031287789344788</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.2749505957744933</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>29.98124361038208</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.05432306602597237</v>
+        <v>0.034000657</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1443810611963272</v>
+        <v>0.14182925</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.9345408082008362</v>
+        <v>0.2497104</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2330730915956888</v>
+        <v>0.1843926720312836</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>26.34867429733276</v>
+        <v>24.06739741563797</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08599018305540085</v>
+        <v>0.08599142999999999</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2406404763460159</v>
+        <v>0.24063924</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8416498303413391</v>
+        <v>0.84166163</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2932408277430018</v>
+        <v>0.293242949279877</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>43.06127429008484</v>
+        <v>43.06080341339111</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04835681989789009</v>
+        <v>0.048931707</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1696488857269287</v>
+        <v>0.17121565</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.704586923122406</v>
+        <v>0.70377505</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2199018415063641</v>
+        <v>0.2212051235770743</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>31.80100917816162</v>
+        <v>32.03480243682861</v>
       </c>
     </row>
   </sheetData>
@@ -10069,23 +10069,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8367088555064947</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5052320471069482</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6841474433915881</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9147179103453122</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.97553499016742</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -10099,23 +10099,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.774834050773481</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.489673810659532</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6588926423717774</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.8802465852097814</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>23.50777126099691</v>
+        <v>15.8342721855699</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -10193,53 +10193,53 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.4133720509687673</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5084908750136672</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2824138683200869</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6429401612660134</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>22.74210182107507</v>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Stochastic Gradient Descent Regressor</t>
+        </is>
+      </c>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
           <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>7.450042462277611</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>2.622319007389794</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>1.094643276102434</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>2.729476591267566</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>182.2661389747153</v>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Stochastic Gradient Descent Regressor</t>
-        </is>
-      </c>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K11" s="8" t="inlineStr">
-        <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
-        </is>
-      </c>
       <c r="L11" s="8" t="n">
-        <v>0.6696374856412776</v>
+        <v>8.363272305358356</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3954921153748726</v>
+        <v>2.775141663921214</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.6134259180980985</v>
+        <v>1.089523158481798</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.8183138063367119</v>
+        <v>2.891932278833368</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>20.12195965359852</v>
+        <v>173.3547622969043</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -10771,23 +10771,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7838252240448454</v>
+        <v>0.4365955752854662</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4196289723706074</v>
+        <v>0.4385244890339007</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6487996907303354</v>
+        <v>0.225806954519184</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8853390446856195</v>
+        <v>0.6607537932433428</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>20.69911166108254</v>
+        <v>20.75242202447669</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -10801,23 +10801,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.7301891364785598</v>
+        <v>0.4534655727634267</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.4138441693008132</v>
+        <v>0.4276623915480413</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6230405268395754</v>
+        <v>0.2267953379179205</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8545110511155253</v>
+        <v>0.6733985244737523</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>20.67678108705141</v>
+        <v>20.5912251592654</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -10915,23 +10915,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8460355997085571</v>
+        <v>0.39770952</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4952580630779266</v>
+        <v>0.394044</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7129344344139099</v>
+        <v>0.28875393</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9198019350428424</v>
+        <v>0.6306421478707522</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>23.4581395983696</v>
+        <v>17.23127216100693</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10945,23 +10945,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.8418979048728943</v>
+        <v>0.42176476</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6130147576332092</v>
+        <v>0.37858412</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6125215888023376</v>
+        <v>0.29642698</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.9175499468001153</v>
+        <v>0.649434185433357</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>28.88528406620026</v>
+        <v>16.60387217998505</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10981,19 +10981,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4948674142360687</v>
+        <v>0.28692526</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4570170044898987</v>
+        <v>0.36612046</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.542635977268219</v>
+        <v>0.123548135</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7034681330636582</v>
+        <v>0.5356540453056327</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>20.62919735908508</v>
+        <v>14.09184336662292</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11007,23 +11007,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.5792626142501831</v>
+        <v>0.29868343</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.43169304728508</v>
+        <v>0.47237152</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.6125836372375488</v>
+        <v>0.16739175</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.7610930391549926</v>
+        <v>0.5465193818381995</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>19.3016305565834</v>
+        <v>18.46795380115509</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3738361001014709</v>
+        <v>0.37335065</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3487133681774139</v>
+        <v>0.34786797</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2754733860492706</v>
+        <v>0.27515012</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6114213768764313</v>
+        <v>0.611024263079706</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.597203373909</v>
+        <v>15.5688613653183</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4421750903129578</v>
+        <v>0.4420396</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.5860190391540527</v>
+        <v>0.5861045</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2788541615009308</v>
+        <v>0.27894637</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6649624728606554</v>
+        <v>0.6648605936249969</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>25.79433917999268</v>
+        <v>25.79538822174072</v>
       </c>
     </row>
   </sheetData>
@@ -11383,19 +11383,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8105062543808967</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4986723995204913</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6866979874750219</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9002812085014863</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>24.00838771843201</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -11413,19 +11413,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.8105062543808967</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.4986723995204913</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6866979874750219</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.9002812085014863</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>24.00838771843201</v>
+        <v>17.07852875592023</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -11503,23 +11503,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.290370478653911</v>
+        <v>0.4935279264308913</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.392876197669609</v>
+        <v>0.5624555786327932</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9909970115908061</v>
+        <v>0.3208586813828096</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.508061099465863</v>
+        <v>0.7025154278952821</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>166.037078726758</v>
+        <v>25.3955843395841</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -11537,19 +11537,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.696287447439532</v>
+        <v>0.5348033618363912</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4171189242926747</v>
+        <v>0.6084899295078556</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.6526765062794448</v>
+        <v>0.3420594002827379</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.8344384024237691</v>
+        <v>0.7313025104813953</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>21.27862373304968</v>
+        <v>27.42207375803796</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -12081,23 +12081,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7285889336599365</v>
+        <v>0.5461850188086202</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.392702978739525</v>
+        <v>0.4987934206743653</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6557150839737985</v>
+        <v>0.2526620370887269</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8535742109857446</v>
+        <v>0.7390433132155518</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>20.01337164148628</v>
+        <v>25.18207701355414</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -12111,23 +12111,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.7749567097990572</v>
+        <v>0.5520276383504286</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.4076899990831176</v>
+        <v>0.5311008741323581</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6709915342685233</v>
+        <v>0.3132186436865887</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8803162555576588</v>
+        <v>0.7429856245920432</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>20.51513743307073</v>
+        <v>25.07475029068263</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -12229,19 +12229,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.852436363697052</v>
+        <v>0.4451176</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4350370764732361</v>
+        <v>0.43275633</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7222311496734619</v>
+        <v>0.32969075</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9232748039977329</v>
+        <v>0.667171336922971</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.17941975593567</v>
+        <v>19.17787492275238</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12259,19 +12259,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.118493795394897</v>
+        <v>0.45709953</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6876948475837708</v>
+        <v>0.5188334</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.8155871033668518</v>
+        <v>0.32222885</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.057588670228127</v>
+        <v>0.6760913600398916</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>31.71430826187134</v>
+        <v>23.69974553585052</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12291,19 +12291,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.730010449886322</v>
+        <v>0.3458665</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5847569704055786</v>
+        <v>0.43333918</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6210770010948181</v>
+        <v>0.15924324</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8544064898432842</v>
+        <v>0.5881041585734021</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>24.70738887786865</v>
+        <v>16.88938289880753</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12317,23 +12317,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4268105626106262</v>
+        <v>0.2653569</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3441225588321686</v>
+        <v>0.37728164</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.572697639465332</v>
+        <v>0.13599111</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.653307402843888</v>
+        <v>0.5151280406926032</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>16.16872102022171</v>
+        <v>14.72595483064652</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5748052000999451</v>
+        <v>0.57396984</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4749905467033386</v>
+        <v>0.4744975</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3641601204872131</v>
+        <v>0.3638777</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7581590862740781</v>
+        <v>0.7576079731651575</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.01685798168182</v>
+        <v>20.00300735235214</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4429182708263397</v>
+        <v>0.44288415</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4597278535366058</v>
+        <v>0.4597306</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3289890587329865</v>
+        <v>0.32897472</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6655210521285857</v>
+        <v>0.6654954148355988</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>20.50897181034088</v>
+        <v>20.50938904285431</v>
       </c>
     </row>
   </sheetData>
@@ -12689,23 +12689,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7779080174477735</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4197054894321403</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3760687273524595</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8819909395497062</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.08222668241814</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -12723,19 +12723,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.808111189700239</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.4943536064078694</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.4153011710430879</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.8989500485011606</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>23.4394738819784</v>
+        <v>18.98306486779321</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -12813,23 +12813,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7189341662098242</v>
+        <v>7.856838923247288</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4360592551194104</v>
+        <v>2.607898143521564</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3790469678521308</v>
+        <v>1.117452443103916</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8478998562388275</v>
+        <v>2.80300533771295</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>21.68576075189157</v>
+        <v>164.3518918433984</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -12843,23 +12843,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.6108000192615994</v>
+        <v>7.323660435764458</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.372575974086114</v>
+        <v>2.550793204653719</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3397662594632034</v>
+        <v>1.093146491403653</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.7815369596260944</v>
+        <v>2.70622623514082</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>19.54489538743037</v>
+        <v>163.4555191170405</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -13391,23 +13391,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8658000140161828</v>
+        <v>0.484182986363836</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4698649912530311</v>
+        <v>0.5065379930658698</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4108135311917259</v>
+        <v>0.3231201836534332</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9304837526879138</v>
+        <v>0.6958325850115357</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>22.96978672294506</v>
+        <v>24.5609389429561</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -13421,23 +13421,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.7249752591475657</v>
+        <v>0.4622556654298982</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.4266128608330906</v>
+        <v>0.445727983111471</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3797283616154157</v>
+        <v>0.313508877501813</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8514547898435745</v>
+        <v>0.6798938633565523</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>21.20117539146921</v>
+        <v>22.0397144272</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -13535,23 +13535,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.9535235166549683</v>
+        <v>0.4492768</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4676761329174042</v>
+        <v>0.47286287</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4342323243618011</v>
+        <v>0.36579645</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9764852874749155</v>
+        <v>0.6702811387201726</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.70094549655914</v>
+        <v>21.96598947048188</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13565,23 +13565,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.8547215461730957</v>
+        <v>0.6138026</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4985307455062866</v>
+        <v>0.50883484</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4254388511180878</v>
+        <v>0.4052664</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.9245115175989403</v>
+        <v>0.7834555582978848</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>23.48269522190094</v>
+        <v>22.22844660282135</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13597,23 +13597,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4120193719863892</v>
+        <v>0.3367064</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2987290322780609</v>
+        <v>0.44568896</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2502773404121399</v>
+        <v>0.18603766</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6418873514771802</v>
+        <v>0.5802640777418524</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>13.7819305062294</v>
+        <v>18.36725473403931</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -13627,23 +13627,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.3841318786144257</v>
+        <v>0.46940887</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3584886491298676</v>
+        <v>0.55176187</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2610527276992798</v>
+        <v>0.22723453</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6197837353580889</v>
+        <v>0.6851341983460957</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>15.99648147821426</v>
+        <v>22.61863797903061</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.301933288574219</v>
+        <v>8.057577</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.365050315856934</v>
+        <v>2.302509</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.175103664398193</v>
+        <v>1.122265</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.88130756577187</v>
+        <v>2.838587172023912</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>66.01376533508301</v>
+        <v>67.0212984085083</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>10.0229959487915</v>
+        <v>10.023169</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>2.339881658554077</v>
+        <v>2.339868</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.9942595362663269</v>
+        <v>0.9942616</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>3.165911551005729</v>
+        <v>3.165938812397165</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>94.36723589897156</v>
+        <v>94.36487555503844</v>
       </c>
     </row>
   </sheetData>
@@ -13967,19 +13967,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -14055,19 +14055,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05555630363603681</v>
+        <v>0.0584612232523882</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1839551167955749</v>
+        <v>0.1897528490080165</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3553289331870787</v>
+        <v>0.60035229486946</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2357038473085173</v>
+        <v>0.2417875581008837</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>28.6847997657907</v>
+        <v>33.42320489722334</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -14485,23 +14485,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06730096242724515</v>
+        <v>0.0468100352894903</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2031943800450004</v>
+        <v>0.1621468637758685</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4061831024928168</v>
+        <v>0.5616967653859675</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2594242903570234</v>
+        <v>0.2163562693556401</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.47303009618154</v>
+        <v>29.01711909831264</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -14611,23 +14611,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04246235266327858</v>
+        <v>0.05630704</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1611935347318649</v>
+        <v>0.17566855</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3640405535697937</v>
+        <v>0.699707</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2060639528478443</v>
+        <v>0.2372910452480959</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>24.95085448026657</v>
+        <v>30.40473759174347</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -14655,23 +14655,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04475110024213791</v>
+        <v>0.024346266</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.177102118730545</v>
+        <v>0.12957522</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2332970201969147</v>
+        <v>0.18363973</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2115445585264199</v>
+        <v>0.1560329001904992</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.80003929138184</v>
+        <v>18.05181056261062</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0665634423494339</v>
+        <v>0.066856235</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1911739259958267</v>
+        <v>0.19167976</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7912114858627319</v>
+        <v>0.7930566999999999</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2579989192795852</v>
+        <v>0.2585657271676426</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>32.03375935554504</v>
+        <v>32.09064304828644</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -15025,19 +15025,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -15055,19 +15055,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -15145,23 +15145,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04776183910721703</v>
+        <v>0.06773169043605751</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1621466999667142</v>
+        <v>0.2091329002885126</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4592999029195793</v>
+        <v>0.7527780862902532</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.218544821735078</v>
+        <v>0.2602531276201259</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>28.73296935631654</v>
+        <v>37.93789869843239</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -15175,23 +15175,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04779850569023182</v>
+        <v>0.0676282748367691</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1626899449659598</v>
+        <v>0.2089367591503214</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.4584567315039134</v>
+        <v>0.7522284993089611</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2186286936571497</v>
+        <v>0.2600543690015016</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>28.83039545621374</v>
+        <v>37.90751932028367</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -15723,23 +15723,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0449307304163503</v>
+        <v>0.0674329008815691</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1612265662591772</v>
+        <v>0.2088630177250339</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4563562924082065</v>
+        <v>0.7530095819601339</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.211968701501779</v>
+        <v>0.2596784567143935</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>29.23524503427764</v>
+        <v>37.89204818517277</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -15753,23 +15753,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.043804198076513</v>
+        <v>0.0456752314061177</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1603492280225398</v>
+        <v>0.1769317172013781</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.448736016427267</v>
+        <v>0.5807354306024004</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2092945247169954</v>
+        <v>0.2137176441151215</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>29.27696703236593</v>
+        <v>34.63463117869033</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -15867,23 +15867,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06086941435933113</v>
+        <v>0.07902685</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1915386170148849</v>
+        <v>0.21117726</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7052127718925476</v>
+        <v>0.98542017</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2467172761671366</v>
+        <v>0.2811171429809538</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>32.5896292924881</v>
+        <v>36.28857135772705</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15897,23 +15897,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.06067952886223793</v>
+        <v>0.06373741500000001</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1926990896463394</v>
+        <v>0.19576094</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6974473595619202</v>
+        <v>0.8209437000000001</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2463321514992266</v>
+        <v>0.2524626997742021</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>32.82774984836578</v>
+        <v>35.2230042219162</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -15929,23 +15929,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04094663262367249</v>
+        <v>0.0461302</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1676770895719528</v>
+        <v>0.17005396</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3521963357925415</v>
+        <v>0.39845714</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2023527430594221</v>
+        <v>0.2147794193709867</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>25.43540894985199</v>
+        <v>27.18482315540314</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15959,23 +15959,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04138472303748131</v>
+        <v>0.05089869</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1684854775667191</v>
+        <v>0.18032701</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.3487283885478973</v>
+        <v>0.3782432</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2034323549425738</v>
+        <v>0.2256073797034552</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>25.5628377199173</v>
+        <v>28.93303632736206</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -16299,19 +16299,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05333434849253286</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1836392004221472</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5090276832651499</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2309423055495308</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.73537468940822</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -16383,23 +16383,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1057370061898916</v>
+        <v>0.0609387022234586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2696821760875794</v>
+        <v>0.1972144699047096</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.538391633366137</v>
+        <v>0.6544495772123847</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3251722715575417</v>
+        <v>0.2468576557926828</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>45.88372260589878</v>
+        <v>35.44176515555586</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -16817,23 +16817,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05223583916217416</v>
+        <v>0.0418413983836947</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.186458700911878</v>
+        <v>0.1586666410693995</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.479763906539516</v>
+        <v>0.4383439657123583</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2285516115939114</v>
+        <v>0.2045517010041587</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.55256361757431</v>
+        <v>30.64609468152843</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -16943,23 +16943,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03126886114478111</v>
+        <v>0.06032877</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1480055004358292</v>
+        <v>0.187885</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3782608509063721</v>
+        <v>0.7722491</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1768300346230275</v>
+        <v>0.2456191572921297</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.1967887878418</v>
+        <v>33.00783634185791</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -16987,23 +16987,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05859626457095146</v>
+        <v>0.035015244</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2078330516815186</v>
+        <v>0.15066612</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3196118772029877</v>
+        <v>0.2887891</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2420666531576612</v>
+        <v>0.1871236063058665</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>29.83849942684174</v>
+        <v>22.62501716613769</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05821214243769646</v>
+        <v>0.05820866</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1855076551437378</v>
+        <v>0.18549168</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7045709490776062</v>
+        <v>0.7045827</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2412719263356109</v>
+        <v>0.2412647079273456</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.07595551013947</v>
+        <v>33.07303488254547</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17321,19 +17321,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -17409,19 +17409,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06243355814119322</v>
+        <v>0.06779681946002949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1983624501263535</v>
+        <v>0.2088642689570285</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6054880177791772</v>
+        <v>0.7512505533131341</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2498670809474374</v>
+        <v>0.2603782238591192</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>34.33441515977882</v>
+        <v>37.9001272559541</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -17839,23 +17839,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05432758153673231</v>
+        <v>0.0488998213606124</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1741576510279473</v>
+        <v>0.1722397614184186</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5815010727100183</v>
+        <v>0.6230960137519901</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2330827782928896</v>
+        <v>0.2211330399569734</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>30.36187374525458</v>
+        <v>32.83072921888925</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -17965,23 +17965,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06003422662615776</v>
+        <v>0.06586343</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1839984655380249</v>
+        <v>0.19199158</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.701518714427948</v>
+        <v>0.86997044</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2450188291257587</v>
+        <v>0.2566387159023956</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>31.37328922748566</v>
+        <v>34.33266580104828</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18009,23 +18009,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0434848852455616</v>
+        <v>0.045390066</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1679039150476456</v>
+        <v>0.16854466</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3601852357387543</v>
+        <v>0.40008855</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2085302981476831</v>
+        <v>0.2130494444006376</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>25.39176642894745</v>
+        <v>26.95488333702088</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06503219902515411</v>
+        <v>0.06505290399999999</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2006083875894547</v>
+        <v>0.20064786</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7783194780349731</v>
+        <v>0.7783452</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2550141153449239</v>
+        <v>0.2550547082267507</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>36.29659414291382</v>
+        <v>36.30295693874359</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18343,19 +18343,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -18431,19 +18431,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2515516030492563</v>
+        <v>0.3831706788503417</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4104997605991826</v>
+        <v>0.489563710312389</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1668437655571289</v>
+        <v>0.284822954969498</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5015492030192614</v>
+        <v>0.6190078180849913</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.29610686865247</v>
+        <v>21.66090972192782</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -18861,23 +18861,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.106783665801522</v>
+        <v>0.3517876606524679</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7112048126102384</v>
+        <v>0.4104734484733672</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2762718980250087</v>
+        <v>0.2603951168439294</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.052037863292725</v>
+        <v>0.5931169030237361</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>37.5559550709001</v>
+        <v>18.49692480170076</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -18991,19 +18991,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1628989577293396</v>
+        <v>0.9666434</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2615591883659363</v>
+        <v>0.7847324</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1266041845083237</v>
+        <v>0.48628247</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4036074302206782</v>
+        <v>0.9831802444311538</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.43390482664108</v>
+        <v>28.82391214370728</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -19031,23 +19031,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05549871921539307</v>
+        <v>0.32508287</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2059718370437622</v>
+        <v>0.49250713</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07312246412038803</v>
+        <v>0.17077355</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2355816614581726</v>
+        <v>0.5701603882572265</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.304578274488449</v>
+        <v>19.19912397861481</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3553741276264191</v>
+        <v>0.35541245</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.36015385389328</v>
+        <v>0.36009982</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2697233855724335</v>
+        <v>0.2697213</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5961326426445872</v>
+        <v>0.5961647871293722</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.16405248641968</v>
+        <v>16.16183519363403</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19365,19 +19365,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -19453,19 +19453,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3068762106765008</v>
+        <v>0.4114605273057259</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4391288284814064</v>
+        <v>0.5068164293814754</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2239336256605062</v>
+        <v>0.3125145699583289</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5539640878942432</v>
+        <v>0.6414518900944373</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.64044659404312</v>
+        <v>22.76569522104868</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -19887,19 +19887,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5967008592236072</v>
+        <v>0.4410808166632906</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6303705400002045</v>
+        <v>0.4771112622723263</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2927582884386521</v>
+        <v>0.3013028954950862</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7724641475328206</v>
+        <v>0.6641391545928388</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.11409916742052</v>
+        <v>21.80236840949775</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -20009,23 +20009,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2818139493465424</v>
+        <v>0.6665188</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3163201212882996</v>
+        <v>0.5474105</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2116189748048782</v>
+        <v>0.4100301</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5308615161664503</v>
+        <v>0.8164060309742903</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.55569511651993</v>
+        <v>22.36039191484452</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20053,23 +20053,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06724517792463303</v>
+        <v>0.14394823</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2240306586027145</v>
+        <v>0.2959177</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08237877488136292</v>
+        <v>0.108403586</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2593167521095254</v>
+        <v>0.3794050963905592</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.137544244527817</v>
+        <v>11.18918359279633</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5970149040222168</v>
+        <v>0.5895483</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4939830601215363</v>
+        <v>0.48951745</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3843573927879333</v>
+        <v>0.3818518</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7726673954698857</v>
+        <v>0.7678204801747921</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.72824239730835</v>
+        <v>20.5930233001709</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20387,19 +20387,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -20475,19 +20475,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3785366172026525</v>
+        <v>0.4615200161454921</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4767673840220167</v>
+        <v>0.5327940862132532</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.280920060553132</v>
+        <v>0.3670087546995587</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6152532951578988</v>
+        <v>0.6793526449094698</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>21.02052919977605</v>
+        <v>24.53157258421476</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -20905,23 +20905,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.775691767707401</v>
+        <v>0.6510593580401199</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7203011713133327</v>
+        <v>0.6794320827447504</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3227411878593594</v>
+        <v>0.3909677284063012</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8807336531025717</v>
+        <v>0.8068824933285639</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>34.23877572022088</v>
+        <v>32.52037767761065</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -21031,23 +21031,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3570828139781952</v>
+        <v>0.7321332</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3629408776760101</v>
+        <v>0.5635242</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2725611329078674</v>
+        <v>0.4755963</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5975640668398621</v>
+        <v>0.8556478304216945</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.23367220163345</v>
+        <v>23.77935349941254</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21075,23 +21075,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1438190788030624</v>
+        <v>0.4630461</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2755572497844696</v>
+        <v>0.5765882</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1204351782798767</v>
+        <v>0.22171478</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.37923485968864</v>
+        <v>0.6804749104235193</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.67847684025764</v>
+        <v>24.05893355607986</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4210777282714844</v>
+        <v>0.4210788</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4424760043621063</v>
+        <v>0.44249213</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3570566773414612</v>
+        <v>0.3570569</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6489050225352585</v>
+        <v>0.6489058492224357</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.64654231071472</v>
+        <v>20.64723074436188</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21441,23 +21441,23 @@
       </c>
       <c r="C9" s="13" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06073650231656759</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1490697384818899</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3481573517333942</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2464477679277449</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.75337638647806</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -21471,23 +21471,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06031308885169412</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1476585384052541</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.338162448325363</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2455872326724134</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>29.80044169379925</v>
+        <v>33.70231028308675</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -21569,19 +21569,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03644721702500474</v>
+        <v>0.0608354356218731</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1382052281142963</v>
+        <v>0.1972494259291968</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3495881394861247</v>
+        <v>0.6567050522564003</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1909115424090559</v>
+        <v>0.2466484048638327</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>23.81267042635567</v>
+        <v>35.43272774958401</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -21599,19 +21599,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03654656493557721</v>
+        <v>0.0607393159933358</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1379192238288817</v>
+        <v>0.1970442462858256</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3483945148999618</v>
+        <v>0.6561503828391887</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.191171558908686</v>
+        <v>0.246453476326336</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>23.76695476145137</v>
+        <v>35.40039861534031</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -22143,23 +22143,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0353081469286318</v>
+        <v>0.0605482152374781</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1407582796763494</v>
+        <v>0.196802842292038</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3348399489631766</v>
+        <v>0.6577627075443189</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.187904621892682</v>
+        <v>0.2460654694130775</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>24.7013219874438</v>
+        <v>35.34839670695711</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -22173,23 +22173,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.04778765120127219</v>
+        <v>0.0442719058961799</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1657700194354128</v>
+        <v>0.1634208019481859</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.392624539054493</v>
+        <v>0.5543143487682655</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.218603868221201</v>
+        <v>0.2104089016562273</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>28.34636118335704</v>
+        <v>30.61002911359511</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -22287,53 +22287,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05397396</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1796009</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.6843417000000001</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2323229683469176</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>32.32744038105011</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.03630176931619644</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.1419753730297089</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.4863336086273193</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.1905302320268268</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>24.49920624494553</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.04988216236233711</v>
+        <v>0.060792338</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1623030006885529</v>
+        <v>0.18708362</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5712798833847046</v>
+        <v>0.78339416</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.223343149351703</v>
+        <v>0.2465610230816216</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>26.94738507270813</v>
+        <v>32.82744288444519</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -22349,23 +22349,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02175101079046726</v>
+        <v>0.0383156</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1134774461388588</v>
+        <v>0.16432081</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1541928797960281</v>
+        <v>0.30590272</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1474822388983408</v>
+        <v>0.1957437141951183</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.40171259641647</v>
+        <v>24.4540810585022</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22379,23 +22379,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01300613675266504</v>
+        <v>0.0396338</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.09790369123220444</v>
+        <v>0.1663465</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1413107067346573</v>
+        <v>0.30950105</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1140444507754106</v>
+        <v>0.1990823933558697</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>13.72589021921158</v>
+        <v>24.70947504043579</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -22755,19 +22755,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -22785,19 +22785,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -22879,19 +22879,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2489249843208304</v>
+        <v>0.3823904634019501</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4078405940815966</v>
+        <v>0.4864704125147606</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1660253843217124</v>
+        <v>0.2856803644840365</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4989238261707195</v>
+        <v>0.6183772824109487</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.18622213880596</v>
+        <v>21.50707720276595</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -22909,19 +22909,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2489973760885563</v>
+        <v>0.3823904634019501</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.408002048398514</v>
+        <v>0.4864704125147606</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1660678424249697</v>
+        <v>0.2856803644840365</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4989963688129968</v>
+        <v>0.6183772824109487</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>16.1929270675913</v>
+        <v>21.50707720276595</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -23453,23 +23453,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3027164304507336</v>
+        <v>0.6023219825367075</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3739827645760064</v>
+        <v>0.5639306497782678</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1564653957702437</v>
+        <v>0.3184895366642806</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5501967197746035</v>
+        <v>0.7760940552128379</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>16.58529198559777</v>
+        <v>25.55698681160657</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -23483,23 +23483,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.1632745578410544</v>
+        <v>0.6023219825367075</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2959829481600388</v>
+        <v>0.5639306497782678</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1195434905839329</v>
+        <v>0.3184895366642806</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.4040724660763887</v>
+        <v>0.7760940552128379</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>12.03987734971684</v>
+        <v>25.55698681160657</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -23597,23 +23597,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1602847129106522</v>
+        <v>0.715043</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2574910819530487</v>
+        <v>0.61835295</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1249170303344727</v>
+        <v>0.4095969</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4003557329558953</v>
+        <v>0.8456021572391381</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.29103770852089</v>
+        <v>24.06534254550934</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23627,23 +23627,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1675397306680679</v>
+        <v>0.345305</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.265519380569458</v>
+        <v>0.42012912</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1285942047834396</v>
+        <v>0.27129373</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4093161744520584</v>
+        <v>0.5876265785132789</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>10.57433113455772</v>
+        <v>18.70947480201721</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -23659,23 +23659,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05248911306262016</v>
+        <v>0.25390393</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2031431198120117</v>
+        <v>0.42951173</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07185507565736771</v>
+        <v>0.14800651</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2291050262709663</v>
+        <v>0.5038888026329358</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.205679267644882</v>
+        <v>16.41389131546021</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23689,23 +23689,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04726456850767136</v>
+        <v>0.36482543</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1889481544494629</v>
+        <v>0.5378891</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.06701572239398956</v>
+        <v>0.18683265</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.217404159361479</v>
+        <v>0.6040078041980882</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>6.701543182134628</v>
+        <v>21.07870876789093</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -24066,19 +24066,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -24096,19 +24096,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -24190,19 +24190,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3731308125438813</v>
+        <v>0.4579092648405883</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4732609522615703</v>
+        <v>0.5310860692945998</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2811322087660417</v>
+        <v>0.3668603805083033</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6108443439566918</v>
+        <v>0.676689932569259</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.83577308931018</v>
+        <v>24.45055543487659</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -24220,19 +24220,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.373009551065023</v>
+        <v>0.4579092648405883</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4732990771047635</v>
+        <v>0.5310860692945998</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2810763101477789</v>
+        <v>0.3668603805083033</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6107450786252994</v>
+        <v>0.676689932569259</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>20.83799293110431</v>
+        <v>24.45055543487659</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -24764,23 +24764,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2857422179922576</v>
+        <v>0.5453520634767691</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3846431671502714</v>
+        <v>0.5319903059793151</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.226483186736463</v>
+        <v>0.375933770134208</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5345486114398368</v>
+        <v>0.7384795619898827</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.71382329024589</v>
+        <v>24.87612602461549</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -24798,19 +24798,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.2048475346239521</v>
+        <v>0.5453520634767691</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2986336142128798</v>
+        <v>0.5319903059793151</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1975508633976002</v>
+        <v>0.375933770134208</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.4526008557481438</v>
+        <v>0.7384795619898827</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>14.13478276923502</v>
+        <v>24.87612602461549</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -24908,23 +24908,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3668297529220581</v>
+        <v>0.85631937</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.348126232624054</v>
+        <v>0.6623885</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2726840972900391</v>
+        <v>0.52286917</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.6056647198921679</v>
+        <v>0.9253752578741176</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>15.63661843538284</v>
+        <v>26.76265835762024</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24938,23 +24938,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3495492041110992</v>
+        <v>0.66798323</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3512963056564331</v>
+        <v>0.51787776</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2691170871257782</v>
+        <v>0.4516829</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5912268634890495</v>
+        <v>0.8173024127755163</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>15.79979658126831</v>
+        <v>22.38180935382843</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24970,23 +24970,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1462202221155167</v>
+        <v>0.32929438</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.278465062379837</v>
+        <v>0.49201956</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1222513094544411</v>
+        <v>0.19578128</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3823875287133678</v>
+        <v>0.573841775688951</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.78318580985069</v>
+        <v>20.0551450252533</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25000,23 +25000,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1344099342823029</v>
+        <v>0.47276112</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2539977729320526</v>
+        <v>0.6204373</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1135277077555656</v>
+        <v>0.23890066</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3666196043343875</v>
+        <v>0.687576268040486</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>9.895646572113037</v>
+        <v>25.75300931930542</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -25377,19 +25377,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -25407,19 +25407,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -25501,19 +25501,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3095104884542894</v>
+        <v>0.407090009431867</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4383072569128164</v>
+        <v>0.5024685219188231</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2266477596239752</v>
+        <v>0.3124087750180881</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5563366682632823</v>
+        <v>0.6380360565296189</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.54810848087062</v>
+        <v>22.56320219793756</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -25531,19 +25531,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3095339614824059</v>
+        <v>0.407090009431867</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4383760602167184</v>
+        <v>0.5024685219188231</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2266832816625303</v>
+        <v>0.3124087750180881</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5563577639274983</v>
+        <v>0.6380360565296189</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>18.55094295425372</v>
+        <v>22.56320219793756</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -26079,19 +26079,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3125281693014044</v>
+        <v>0.5498592424480625</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3891029623217624</v>
+        <v>0.5234561745370566</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1974774613896546</v>
+        <v>0.3292382509811373</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5590421891963114</v>
+        <v>0.7415249439149452</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.37977034082082</v>
+        <v>24.0070358224978</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -26105,23 +26105,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.2345847622281019</v>
+        <v>0.5498592424480625</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3241474079452439</v>
+        <v>0.5234561745370566</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1757960276887504</v>
+        <v>0.3292382509811373</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.4843395113224833</v>
+        <v>0.7415249439149452</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>13.96522673335688</v>
+        <v>24.0070358224978</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -26219,23 +26219,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2661622166633606</v>
+        <v>0.361631</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.331406831741333</v>
+        <v>0.38324538</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2105763852596283</v>
+        <v>0.2945261</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5159091166701366</v>
+        <v>0.6013576356897999</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>14.1693502664566</v>
+        <v>17.54626035690308</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -26249,23 +26249,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2588688135147095</v>
+        <v>0.39049557</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3042213916778564</v>
+        <v>0.3747958</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2030381709337234</v>
+        <v>0.30166367</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5087915226443042</v>
+        <v>0.6248964462323899</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>13.15386444330215</v>
+        <v>17.15573072433472</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26285,19 +26285,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06787501275539398</v>
+        <v>0.1728483</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2242661863565445</v>
+        <v>0.32116923</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08238446712493896</v>
+        <v>0.11679667</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2605283338821211</v>
+        <v>0.4157502846008629</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.142521232366562</v>
+        <v>12.21799999475479</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26315,19 +26315,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.06313616782426834</v>
+        <v>0.21520327</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2135491073131561</v>
+        <v>0.35388228</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07919873297214508</v>
+        <v>0.12800556</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2512691143460898</v>
+        <v>0.4639000650098294</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.758226990699768</v>
+        <v>13.55811655521393</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26690,19 +26690,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -26720,19 +26720,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -26810,23 +26810,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03147573631998189</v>
+        <v>0.0582485849001159</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1393414626473896</v>
+        <v>0.1894510171644441</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2545189819856257</v>
+        <v>0.6022000854606874</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1774140251501608</v>
+        <v>0.2413474360752895</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>21.90508111528566</v>
+        <v>33.36067477778511</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -26840,23 +26840,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03120996851378005</v>
+        <v>0.0582956085312641</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.13931078138972</v>
+        <v>0.1896366529703895</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.253010443455173</v>
+        <v>0.6022209701628247</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1766634328710389</v>
+        <v>0.2414448353791486</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>21.86410402224818</v>
+        <v>33.39367530494636</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -27392,19 +27392,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05332242868306164</v>
+        <v>0.0575977128378058</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1816258364521582</v>
+        <v>0.2057334821517362</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3453322876362733</v>
+        <v>0.5130949306102252</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.23091649720854</v>
+        <v>0.2399952350314603</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.3402665347294</v>
+        <v>37.52756594318046</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -27418,23 +27418,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05332242868306164</v>
+        <v>0.100973497043205</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1816258364521582</v>
+        <v>0.2446639492975438</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3453322876362733</v>
+        <v>0.6046703211455734</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.23091649720854</v>
+        <v>0.3177632720174014</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>28.3402665347294</v>
+        <v>45.08101306841564</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -27532,23 +27532,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04242772981524467</v>
+        <v>0.06077393</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1646215617656708</v>
+        <v>0.20381118</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3735201358795166</v>
+        <v>0.6320363</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2059799257579356</v>
+        <v>0.2465236934732466</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>25.47910809516907</v>
+        <v>35.97198128700256</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -27562,23 +27562,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.041667640209198</v>
+        <v>0.086749144</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1629204154014587</v>
+        <v>0.24192947</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3670268654823303</v>
+        <v>0.65822417</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2041265299004468</v>
+        <v>0.2945320761792968</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>25.28196275234222</v>
+        <v>42.89357960224152</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -27594,23 +27594,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02883585728704929</v>
+        <v>0.025706965</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1470541208982468</v>
+        <v>0.12898965</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2147627174854279</v>
+        <v>0.1747968</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1698112401669845</v>
+        <v>0.1603339186706122</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>19.73751336336136</v>
+        <v>17.87005662918091</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27624,23 +27624,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02691405080258846</v>
+        <v>0.024872726</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1443522274494171</v>
+        <v>0.123500034</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2112211883068085</v>
+        <v>0.16898146</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1640550237042087</v>
+        <v>0.157710893185861</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>19.40657645463943</v>
+        <v>17.08576679229736</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27660,19 +27660,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05583429336547852</v>
+        <v>0.055817064</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1857496798038483</v>
+        <v>0.18568633</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6247120499610901</v>
+        <v>0.62445563</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.236292812767292</v>
+        <v>0.2362563520793634</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>32.57960379123688</v>
+        <v>32.57090449333191</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27690,19 +27690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07401567697525024</v>
+        <v>0.07978813</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.212024062871933</v>
+        <v>0.22257152</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.8271394968032837</v>
+        <v>0.86788577</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2720582235023419</v>
+        <v>0.2824679335818608</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>34.59141850471497</v>
+        <v>35.6865257024765</v>
       </c>
     </row>
   </sheetData>
@@ -28004,19 +28004,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -28034,19 +28034,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
     </row>
     <row r="10">
@@ -28128,19 +28128,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06300756054960438</v>
+        <v>0.066941806732753</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2003098699824897</v>
+        <v>0.2078515506240604</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6081251731799507</v>
+        <v>0.7481523492931822</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2510130684837034</v>
+        <v>0.2587311475890622</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>34.66953589894526</v>
+        <v>37.75086062207389</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -28158,19 +28158,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.06300935430109718</v>
+        <v>0.0669318038509851</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2003131103595605</v>
+        <v>0.2077938685412387</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.6081266897068249</v>
+        <v>0.7478692360251058</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2510166414823869</v>
+        <v>0.2587118162183264</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>34.67006418239204</v>
+        <v>37.74213385098652</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -28702,23 +28702,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06318380208330351</v>
+        <v>0.06638021387926291</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1992639123118889</v>
+        <v>0.2059592587244884</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6904896170836068</v>
+        <v>0.7568889773490645</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2513638838085208</v>
+        <v>0.2576435791539601</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>33.93424957136728</v>
+        <v>37.36476487114587</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -28732,23 +28732,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.0565324723925108</v>
+        <v>0.0635540777881487</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1850495424049102</v>
+        <v>0.1989249519191862</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.5988002359341368</v>
+        <v>0.7375563731752062</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2377655828594854</v>
+        <v>0.2520993411101044</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>32.32913813624691</v>
+        <v>36.2794675060297</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -28846,23 +28846,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06481476128101349</v>
+        <v>0.12583989</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1978612393140793</v>
+        <v>0.26722407</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7193559408187866</v>
+        <v>1.2146715</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2545874334703374</v>
+        <v>0.3547391845420097</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>33.42818021774292</v>
+        <v>41.75974428653717</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28876,23 +28876,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.06070274114608765</v>
+        <v>0.112297386</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1969127804040909</v>
+        <v>0.26109153</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.710294246673584</v>
+        <v>1.144337</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2463792628166739</v>
+        <v>0.3351080212871888</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>33.40917825698853</v>
+        <v>41.57319962978363</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28908,23 +28908,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0467359833419323</v>
+        <v>0.050613254</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1795345693826675</v>
+        <v>0.17625375</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.369471937417984</v>
+        <v>0.33241323</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.216185067342618</v>
+        <v>0.2249738969496251</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>27.01387107372284</v>
+        <v>28.54634821414948</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28938,23 +28938,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03867676854133606</v>
+        <v>0.07179076</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1598401516675949</v>
+        <v>0.2126997</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.3412321507930756</v>
+        <v>0.44810036</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1966641007945681</v>
+        <v>0.2679379820884957</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>24.40032809972763</v>
+        <v>33.94189774990082</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28974,19 +28974,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08389274775981903</v>
+        <v>0.08381593</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2404359430074692</v>
+        <v>0.2402715</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.936872661113739</v>
+        <v>0.9366035</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2896424481318631</v>
+        <v>0.2895098137781597</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>40.89328646659851</v>
+        <v>40.87282121181488</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29004,19 +29004,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.0703398734331131</v>
+        <v>0.065931536</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2149567902088165</v>
+        <v>0.20219466</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.907184898853302</v>
+        <v>0.8405316</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2652166537627551</v>
+        <v>0.2567713696214338</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>37.44591474533081</v>
+        <v>36.07552349567413</v>
       </c>
     </row>
   </sheetData>
@@ -29316,19 +29316,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05333434849253286</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1836392004221472</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.5090276832651499</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2309423055495308</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.73537468940822</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -29346,19 +29346,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05333434849253286</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1836392004221472</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.5090276832651499</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2309423055495308</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>30.73537468940822</v>
+        <v>33.70231028308675</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -29440,19 +29440,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05661316758715664</v>
+        <v>0.060286782131371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.189212711456517</v>
+        <v>0.1958731531213089</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4914705616444063</v>
+        <v>0.6546009160078594</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2379352172066099</v>
+        <v>0.2455336680200314</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>31.76669563628465</v>
+        <v>35.20518794129123</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -29470,19 +29470,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0565937525489769</v>
+        <v>0.060243894383683</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1891674783957456</v>
+        <v>0.1959054287731602</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.4914425729420472</v>
+        <v>0.6540670009666631</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.237894414707401</v>
+        <v>0.24544631670425</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>31.75904272031335</v>
+        <v>35.21569560264727</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -30018,19 +30018,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05708941605315767</v>
+        <v>0.0578447505589718</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1903011759666142</v>
+        <v>0.1883570627112643</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.49430443567581</v>
+        <v>0.717280932153066</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2389339156611252</v>
+        <v>0.2405093564894552</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.93584028500944</v>
+        <v>33.49410615888726</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -30048,19 +30048,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.06471071590660772</v>
+        <v>0.06983805226989551</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2107041881438353</v>
+        <v>0.2229030435438512</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4936309428127956</v>
+        <v>0.6071778788318281</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2543830102554173</v>
+        <v>0.2642689014430104</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>35.99578826964828</v>
+        <v>40.6638469383267</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -30158,23 +30158,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05136934295296669</v>
+        <v>0.06280882</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1766228824853897</v>
+        <v>0.19656599</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5541796684265137</v>
+        <v>0.8088936</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2266480596717446</v>
+        <v>0.2506168771554739</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.34794723987579</v>
+        <v>34.13264453411102</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30188,23 +30188,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05325228348374367</v>
+        <v>0.06567994000000001</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1839324086904526</v>
+        <v>0.19304109</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5583757758140564</v>
+        <v>0.82219195</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2307645628855169</v>
+        <v>0.2562809739350338</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>30.42550384998322</v>
+        <v>33.41395854949951</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30220,23 +30220,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03146955370903015</v>
+        <v>0.025150185</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1539187282323837</v>
+        <v>0.13063024</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2461564242839813</v>
+        <v>0.24107473</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1773966000492404</v>
+        <v>0.1585880999662696</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>21.88133150339127</v>
+        <v>19.827501475811</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30250,23 +30250,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03319505974650383</v>
+        <v>0.037142787</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1545999944210052</v>
+        <v>0.1651182</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2512333393096924</v>
+        <v>0.28762266</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1821951144968049</v>
+        <v>0.1927246406889552</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>21.94691449403763</v>
+        <v>24.85632002353668</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30286,19 +30286,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05691121891140938</v>
+        <v>0.057029378</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1797182708978653</v>
+        <v>0.18027398</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7596480846405029</v>
+        <v>0.7604997999999999</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.238560723740119</v>
+        <v>0.2388082445584657</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>31.90202116966248</v>
+        <v>31.98029100894928</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30316,19 +30316,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07579732686281204</v>
+        <v>0.07620797</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2165730446577072</v>
+        <v>0.21637213</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.8791647553443909</v>
+        <v>0.88168377</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2753131432801784</v>
+        <v>0.2760579161389727</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>36.27703189849854</v>
+        <v>36.22609078884125</v>
       </c>
     </row>
   </sheetData>
